--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561636.813650824</v>
+        <v>1537893.063045271</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4631990.971372778</v>
+        <v>4631990.971372779</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>225.9713664108471</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.0551988527561</v>
       </c>
       <c r="H11" t="n">
-        <v>220.8647928345901</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I11" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>112.229282317285</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.2873268199495</v>
       </c>
       <c r="I13" t="n">
-        <v>98.15291916629997</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>24.57965017201744</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.60314515674844</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>319.899677660613</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>128.1157311387939</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>112.2292823172849</v>
+        <v>112.229282317285</v>
       </c>
       <c r="T14" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0058498148462</v>
@@ -1703,10 +1703,10 @@
         <v>135.0708836232406</v>
       </c>
       <c r="H15" t="n">
-        <v>90.28658873204914</v>
+        <v>90.28658873204915</v>
       </c>
       <c r="I15" t="n">
-        <v>11.15025877788581</v>
+        <v>11.15025877788582</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0856797412564</v>
+        <v>112.4443142474801</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.15291916629997</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.62419222550695</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.8124219808184</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.68476107597795</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>411.0551988527561</v>
       </c>
       <c r="H17" t="n">
-        <v>220.8647928345897</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I17" t="n">
-        <v>46.72265528904137</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>112.229282317285</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>204.0260634346594</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0058498148462</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>90.28658873204915</v>
       </c>
       <c r="I18" t="n">
-        <v>11.15025877788584</v>
+        <v>11.15025877788582</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>92.74967441889778</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.2873268199495</v>
       </c>
       <c r="I19" t="n">
-        <v>98.15291916629999</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.62419222550697</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>89.18340188978695</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>227.3947152898235</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.0551988527561</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>112.229282317285</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0058498148462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0.3599444120447742</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>142.7017116452301</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>166.0856797412564</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.15291916629997</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.62419222550696</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.8124219808184</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.8047637911441</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>51.00763810680859</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>158.2409093792349</v>
       </c>
       <c r="G23" t="n">
         <v>411.0551988527561</v>
       </c>
       <c r="H23" t="n">
-        <v>295.9746967896787</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6474153725575208</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>112.229282317285</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.2141096728921</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.62419222550696</v>
       </c>
       <c r="S25" t="n">
         <v>190.8124219808184</v>
@@ -2532,13 +2532,13 @@
         <v>219.8047637911441</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2151039228253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>113.6410288553635</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>165.876266981459</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.0551988527561</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I26" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>204.5022490695675</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0058498148462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>188.2646627454826</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>144.0076778416009</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0856797412564</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.15291916629997</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.62419222550696</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.8047637911441</v>
       </c>
       <c r="U28" t="n">
-        <v>1.39615881567388</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>273.1770223715707</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.0551988527561</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I29" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>204.5022490695675</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0058498148462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>117.3353349776056</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>89.56155908226108</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.15291916629997</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.8124219808184</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.8047637911441</v>
       </c>
       <c r="U31" t="n">
-        <v>194.6994600595974</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>263.1287654362388</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0551988527561</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>204.5022490695675</v>
       </c>
       <c r="U32" t="n">
-        <v>170.4401787730279</v>
+        <v>251.0058498148462</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>61.92638461340465</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0856797412564</v>
+        <v>70.98705214691221</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I34" t="n">
         <v>98.15291916629997</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.8124219808184</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.8047637911441</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>145.3631011794357</v>
+        <v>411.0551988527561</v>
       </c>
       <c r="H35" t="n">
         <v>295.9746967896787</v>
       </c>
       <c r="I35" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>112.229282317285</v>
+        <v>81.75272601001488</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U35" t="n">
         <v>251.0058498148462</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1667822720612</v>
       </c>
       <c r="C37" t="n">
-        <v>115.1945514717733</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.8047637911441</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2151039228253</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>280.6609872175578</v>
+        <v>220.1339372914398</v>
       </c>
       <c r="G38" t="n">
         <v>411.0551988527561</v>
       </c>
       <c r="H38" t="n">
-        <v>295.9746967896787</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>112.229282317285</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0058498148462</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>131.5582002715823</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>219.8047637911441</v>
       </c>
       <c r="U40" t="n">
-        <v>285.4473333399322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>411.0551988527561</v>
       </c>
       <c r="H41" t="n">
-        <v>11.90433485756134</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I41" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>112.229282317285</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>159.9690561342186</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>90.28658873204915</v>
       </c>
       <c r="I42" t="n">
-        <v>11.15025877788582</v>
+        <v>11.15025877788584</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>10.30826230516567</v>
       </c>
       <c r="E43" t="n">
-        <v>128.9408519124541</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.15291916629999</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>91.62419222550697</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2151039228253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>40.47214362424307</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.0551988527561</v>
@@ -3997,7 +3997,7 @@
         <v>295.9746967896787</v>
       </c>
       <c r="I44" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>78.64760163666779</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>90.28658873204915</v>
       </c>
       <c r="I45" t="n">
-        <v>11.15025877788582</v>
+        <v>11.15025877788584</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>39.74268378272438</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.8124219808184</v>
       </c>
       <c r="T46" t="n">
         <v>219.8047637911441</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2151039228253</v>
+        <v>198.0974875707741</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2272.757181441752</v>
+        <v>1557.37721878832</v>
       </c>
       <c r="C11" t="n">
-        <v>1903.79466450134</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="D11" t="n">
-        <v>1545.52896589459</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="E11" t="n">
-        <v>1159.740713296346</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F11" t="n">
-        <v>748.7548085067381</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G11" t="n">
-        <v>333.5475369382975</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H11" t="n">
-        <v>110.4517866003277</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I11" t="n">
         <v>63.25718529826573</v>
@@ -5044,7 +5044,7 @@
         <v>240.9212290174714</v>
       </c>
       <c r="K11" t="n">
-        <v>557.932094146282</v>
+        <v>557.9320941462815</v>
       </c>
       <c r="L11" t="n">
         <v>988.1138662147278</v>
@@ -5059,7 +5059,7 @@
         <v>2502.353057924652</v>
       </c>
       <c r="P11" t="n">
-        <v>2878.125747509622</v>
+        <v>2878.125747509621</v>
       </c>
       <c r="Q11" t="n">
         <v>3112.142641353622</v>
@@ -5071,22 +5071,22 @@
         <v>3049.496353481686</v>
       </c>
       <c r="T11" t="n">
-        <v>3049.496353481686</v>
+        <v>2842.928425128587</v>
       </c>
       <c r="U11" t="n">
-        <v>3049.496353481686</v>
+        <v>2842.928425128587</v>
       </c>
       <c r="V11" t="n">
-        <v>3049.496353481686</v>
+        <v>2511.865537785016</v>
       </c>
       <c r="W11" t="n">
-        <v>3049.496353481686</v>
+        <v>2159.096882514902</v>
       </c>
       <c r="X11" t="n">
-        <v>3049.496353481686</v>
+        <v>1785.631124253822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2659.357021505874</v>
+        <v>1785.631124253822</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>377.1024745431013</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4496743603844</v>
+        <v>832.0609822209117</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.8881094498</v>
+        <v>1261.423460603146</v>
       </c>
       <c r="N12" t="n">
-        <v>1676.023179942631</v>
+        <v>1716.558531095977</v>
       </c>
       <c r="O12" t="n">
-        <v>2070.16305639143</v>
+        <v>2110.698407544776</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.161988983623</v>
+        <v>2407.697340136969</v>
       </c>
       <c r="Q12" t="n">
-        <v>2515.778713699052</v>
+        <v>2556.314064852398</v>
       </c>
       <c r="R12" t="n">
         <v>2556.314064852398</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.775599958717</v>
+        <v>823.8679242945184</v>
       </c>
       <c r="C13" t="n">
-        <v>921.8394170308098</v>
+        <v>654.9317413666115</v>
       </c>
       <c r="D13" t="n">
-        <v>771.7227776184741</v>
+        <v>504.8151019542757</v>
       </c>
       <c r="E13" t="n">
-        <v>623.809684036081</v>
+        <v>356.9020083718826</v>
       </c>
       <c r="F13" t="n">
-        <v>476.9197365381706</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="G13" t="n">
-        <v>309.1564236682146</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="H13" t="n">
-        <v>162.4015480925081</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I13" t="n">
         <v>63.25718529826573</v>
@@ -5232,19 +5232,19 @@
         <v>1772.729061605058</v>
       </c>
       <c r="U13" t="n">
-        <v>1772.729061605058</v>
+        <v>1483.622896026446</v>
       </c>
       <c r="V13" t="n">
-        <v>1518.044573399171</v>
+        <v>1228.938407820559</v>
       </c>
       <c r="W13" t="n">
-        <v>1493.216643932486</v>
+        <v>1228.938407820559</v>
       </c>
       <c r="X13" t="n">
-        <v>1493.216643932486</v>
+        <v>1226.308968268288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1272.424064788956</v>
+        <v>1005.516389124758</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>755.3506897746502</v>
+        <v>961.9186181277489</v>
       </c>
       <c r="C14" t="n">
-        <v>386.3881728342384</v>
+        <v>961.9186181277489</v>
       </c>
       <c r="D14" t="n">
-        <v>63.25718529826572</v>
+        <v>603.6529195209985</v>
       </c>
       <c r="E14" t="n">
-        <v>63.25718529826572</v>
+        <v>474.2430900878733</v>
       </c>
       <c r="F14" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="G14" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="H14" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I14" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J14" t="n">
-        <v>240.9212290174712</v>
+        <v>240.9212290174714</v>
       </c>
       <c r="K14" t="n">
         <v>557.9320941462813</v>
       </c>
       <c r="L14" t="n">
-        <v>988.1138662147266</v>
+        <v>988.1138662147268</v>
       </c>
       <c r="M14" t="n">
-        <v>1498.44341223867</v>
+        <v>1498.443412238671</v>
       </c>
       <c r="N14" t="n">
-        <v>2021.644432229228</v>
+        <v>2021.644432229229</v>
       </c>
       <c r="O14" t="n">
-        <v>2502.353057924651</v>
+        <v>2502.353057924652</v>
       </c>
       <c r="P14" t="n">
-        <v>2878.125747509621</v>
+        <v>2878.125747509622</v>
       </c>
       <c r="Q14" t="n">
-        <v>3112.142641353621</v>
+        <v>3112.142641353622</v>
       </c>
       <c r="R14" t="n">
-        <v>3162.859264913286</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="S14" t="n">
-        <v>3049.496353481685</v>
+        <v>3049.496353481686</v>
       </c>
       <c r="T14" t="n">
-        <v>2842.928425128587</v>
+        <v>3049.496353481686</v>
       </c>
       <c r="U14" t="n">
-        <v>2589.387162689348</v>
+        <v>2795.955091042447</v>
       </c>
       <c r="V14" t="n">
-        <v>2258.324275345778</v>
+        <v>2464.892203698877</v>
       </c>
       <c r="W14" t="n">
-        <v>1905.555620075663</v>
+        <v>2112.123548428762</v>
       </c>
       <c r="X14" t="n">
-        <v>1532.089861814584</v>
+        <v>1738.657790167682</v>
       </c>
       <c r="Y14" t="n">
-        <v>1141.950529838772</v>
+        <v>1348.518458191871</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H15" t="n">
-        <v>74.52007295269584</v>
+        <v>74.52007295269586</v>
       </c>
       <c r="I15" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J15" t="n">
-        <v>150.2548256598855</v>
+        <v>150.2548256598854</v>
       </c>
       <c r="K15" t="n">
         <v>377.1024745431013</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4496743603845</v>
+        <v>728.4496743603844</v>
       </c>
       <c r="M15" t="n">
         <v>1157.812152742619</v>
@@ -5372,7 +5372,7 @@
         <v>1612.94722323545</v>
       </c>
       <c r="O15" t="n">
-        <v>2007.087099684249</v>
+        <v>2110.698407544776</v>
       </c>
       <c r="P15" t="n">
         <v>2407.697340136969</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.775599958717</v>
+        <v>275.9816634940032</v>
       </c>
       <c r="C16" t="n">
-        <v>921.8394170308098</v>
+        <v>275.9816634940032</v>
       </c>
       <c r="D16" t="n">
-        <v>771.7227776184741</v>
+        <v>275.9816634940032</v>
       </c>
       <c r="E16" t="n">
-        <v>623.809684036081</v>
+        <v>275.9816634940032</v>
       </c>
       <c r="F16" t="n">
-        <v>476.9197365381706</v>
+        <v>275.9816634940032</v>
       </c>
       <c r="G16" t="n">
-        <v>309.1564236682146</v>
+        <v>162.4015480925081</v>
       </c>
       <c r="H16" t="n">
         <v>162.4015480925081</v>
       </c>
       <c r="I16" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J16" t="n">
         <v>104.1892330896046</v>
       </c>
       <c r="K16" t="n">
-        <v>301.2899981525962</v>
+        <v>301.2899981525961</v>
       </c>
       <c r="L16" t="n">
-        <v>609.037552617856</v>
+        <v>609.0375526178559</v>
       </c>
       <c r="M16" t="n">
-        <v>943.9033225048611</v>
+        <v>943.903322504861</v>
       </c>
       <c r="N16" t="n">
         <v>1276.241349267604</v>
@@ -5454,34 +5454,34 @@
         <v>1567.193011936864</v>
       </c>
       <c r="P16" t="n">
-        <v>1792.631740574451</v>
+        <v>1792.63174057445</v>
       </c>
       <c r="Q16" t="n">
         <v>1865.278750721732</v>
       </c>
       <c r="R16" t="n">
-        <v>1772.729061605058</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="S16" t="n">
-        <v>1579.989241422413</v>
+        <v>1672.538930539087</v>
       </c>
       <c r="T16" t="n">
-        <v>1357.964227491964</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="U16" t="n">
-        <v>1357.964227491964</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="V16" t="n">
-        <v>1357.964227491964</v>
+        <v>1195.829428402751</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.964227491964</v>
+        <v>906.4122583657904</v>
       </c>
       <c r="X16" t="n">
-        <v>1357.964227491964</v>
+        <v>678.4227074677731</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.424064788956</v>
+        <v>457.6301283242429</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2272.757181441752</v>
+        <v>1943.165471386564</v>
       </c>
       <c r="C17" t="n">
-        <v>1903.79466450134</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="D17" t="n">
-        <v>1545.528965894589</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="E17" t="n">
-        <v>1159.740713296345</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F17" t="n">
-        <v>748.7548085067376</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G17" t="n">
-        <v>333.5475369382971</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H17" t="n">
-        <v>110.4517866003277</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I17" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J17" t="n">
-        <v>240.921229017471</v>
+        <v>240.9212290174714</v>
       </c>
       <c r="K17" t="n">
-        <v>557.9320941462809</v>
+        <v>557.9320941462815</v>
       </c>
       <c r="L17" t="n">
-        <v>988.1138662147262</v>
+        <v>988.1138662147278</v>
       </c>
       <c r="M17" t="n">
-        <v>1498.44341223867</v>
+        <v>1498.443412238671</v>
       </c>
       <c r="N17" t="n">
-        <v>2021.644432229228</v>
+        <v>2021.644432229229</v>
       </c>
       <c r="O17" t="n">
-        <v>2502.353057924651</v>
+        <v>2502.353057924652</v>
       </c>
       <c r="P17" t="n">
         <v>2878.125747509621</v>
@@ -5539,28 +5539,28 @@
         <v>3112.142641353622</v>
       </c>
       <c r="R17" t="n">
-        <v>3162.859264913286</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="S17" t="n">
-        <v>3049.496353481685</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="T17" t="n">
-        <v>3049.496353481685</v>
+        <v>2956.772332151004</v>
       </c>
       <c r="U17" t="n">
-        <v>3049.496353481685</v>
+        <v>2703.231069711766</v>
       </c>
       <c r="V17" t="n">
-        <v>3049.496353481685</v>
+        <v>2703.231069711766</v>
       </c>
       <c r="W17" t="n">
-        <v>3049.496353481685</v>
+        <v>2703.231069711766</v>
       </c>
       <c r="X17" t="n">
-        <v>3049.496353481685</v>
+        <v>2329.765311450686</v>
       </c>
       <c r="Y17" t="n">
-        <v>2659.357021505873</v>
+        <v>2329.765311450686</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H18" t="n">
-        <v>74.52007295269587</v>
+        <v>74.52007295269586</v>
       </c>
       <c r="I18" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J18" t="n">
-        <v>150.2548256598853</v>
+        <v>150.2548256598854</v>
       </c>
       <c r="K18" t="n">
-        <v>377.102474543101</v>
+        <v>377.1024745431013</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4496743603841</v>
+        <v>832.0609822209117</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.812152742618</v>
+        <v>1261.423460603146</v>
       </c>
       <c r="N18" t="n">
-        <v>1612.947223235449</v>
+        <v>1716.558531095977</v>
       </c>
       <c r="O18" t="n">
         <v>2110.698407544776</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717.4962238531496</v>
+        <v>378.9482438018792</v>
       </c>
       <c r="C19" t="n">
-        <v>717.4962238531496</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="D19" t="n">
-        <v>623.8096840360811</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="E19" t="n">
-        <v>623.8096840360811</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="F19" t="n">
-        <v>476.9197365381707</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="G19" t="n">
-        <v>309.1564236682147</v>
+        <v>210.0120608739723</v>
       </c>
       <c r="H19" t="n">
-        <v>162.4015480925082</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I19" t="n">
-        <v>63.25718529826572</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J19" t="n">
-        <v>104.1892330896045</v>
+        <v>104.1892330896046</v>
       </c>
       <c r="K19" t="n">
-        <v>301.289998152596</v>
+        <v>301.2899981525961</v>
       </c>
       <c r="L19" t="n">
-        <v>609.0375526178557</v>
+        <v>609.0375526178559</v>
       </c>
       <c r="M19" t="n">
-        <v>943.9033225048606</v>
+        <v>943.903322504861</v>
       </c>
       <c r="N19" t="n">
-        <v>1276.241349267603</v>
+        <v>1276.241349267604</v>
       </c>
       <c r="O19" t="n">
         <v>1567.193011936864</v>
@@ -5694,31 +5694,31 @@
         <v>1792.63174057445</v>
       </c>
       <c r="Q19" t="n">
-        <v>1865.278750721731</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="R19" t="n">
-        <v>1772.729061605057</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="S19" t="n">
-        <v>1772.729061605057</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="T19" t="n">
-        <v>1550.704047674608</v>
+        <v>1643.253736791283</v>
       </c>
       <c r="U19" t="n">
-        <v>1261.597882095997</v>
+        <v>1354.147571212671</v>
       </c>
       <c r="V19" t="n">
-        <v>1006.91339389011</v>
+        <v>1099.463083006784</v>
       </c>
       <c r="W19" t="n">
-        <v>717.4962238531496</v>
+        <v>1009.378838673666</v>
       </c>
       <c r="X19" t="n">
-        <v>717.4962238531496</v>
+        <v>781.389287775649</v>
       </c>
       <c r="Y19" t="n">
-        <v>717.4962238531496</v>
+        <v>560.5967086321189</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>755.3506897746506</v>
+        <v>2049.661431103782</v>
       </c>
       <c r="C20" t="n">
-        <v>525.6590581687683</v>
+        <v>1680.698914163371</v>
       </c>
       <c r="D20" t="n">
-        <v>525.6590581687683</v>
+        <v>1322.43321555662</v>
       </c>
       <c r="E20" t="n">
-        <v>525.6590581687683</v>
+        <v>936.6449629583758</v>
       </c>
       <c r="F20" t="n">
-        <v>525.6590581687683</v>
+        <v>525.6590581687682</v>
       </c>
       <c r="G20" t="n">
         <v>110.4517866003277</v>
@@ -5749,55 +5749,55 @@
         <v>110.4517866003277</v>
       </c>
       <c r="I20" t="n">
-        <v>63.25718529826573</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J20" t="n">
-        <v>240.9212290174714</v>
+        <v>240.921229017471</v>
       </c>
       <c r="K20" t="n">
-        <v>557.9320941462815</v>
+        <v>557.932094146281</v>
       </c>
       <c r="L20" t="n">
-        <v>988.1138662147278</v>
+        <v>988.1138662147264</v>
       </c>
       <c r="M20" t="n">
-        <v>1498.443412238671</v>
+        <v>1498.44341223867</v>
       </c>
       <c r="N20" t="n">
-        <v>2021.644432229229</v>
+        <v>2021.644432229228</v>
       </c>
       <c r="O20" t="n">
-        <v>2502.353057924652</v>
+        <v>2502.35305792465</v>
       </c>
       <c r="P20" t="n">
-        <v>2878.125747509621</v>
+        <v>2878.12574750962</v>
       </c>
       <c r="Q20" t="n">
-        <v>3112.142641353622</v>
+        <v>3112.142641353621</v>
       </c>
       <c r="R20" t="n">
-        <v>3162.859264913287</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="S20" t="n">
-        <v>3049.496353481686</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="T20" t="n">
-        <v>2842.928425128587</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="U20" t="n">
-        <v>2589.387162689349</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="V20" t="n">
-        <v>2258.324275345778</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="W20" t="n">
-        <v>1905.555620075664</v>
+        <v>2810.090609643171</v>
       </c>
       <c r="X20" t="n">
-        <v>1532.089861814584</v>
+        <v>2436.624851382091</v>
       </c>
       <c r="Y20" t="n">
-        <v>1141.950529838772</v>
+        <v>2436.261271167904</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H21" t="n">
-        <v>74.52007295269586</v>
+        <v>74.52007295269583</v>
       </c>
       <c r="I21" t="n">
-        <v>63.25718529826573</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J21" t="n">
-        <v>150.2548256598854</v>
+        <v>213.3307823670669</v>
       </c>
       <c r="K21" t="n">
-        <v>480.7137824036286</v>
+        <v>440.1784312502828</v>
       </c>
       <c r="L21" t="n">
-        <v>832.0609822209117</v>
+        <v>791.5256310675659</v>
       </c>
       <c r="M21" t="n">
-        <v>1261.423460603146</v>
+        <v>1220.8881094498</v>
       </c>
       <c r="N21" t="n">
-        <v>1716.558531095977</v>
+        <v>1676.023179942631</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.698407544776</v>
+        <v>2070.16305639143</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.697340136969</v>
+        <v>2367.161988983623</v>
       </c>
       <c r="Q21" t="n">
-        <v>2556.314064852398</v>
+        <v>2515.778713699052</v>
       </c>
       <c r="R21" t="n">
         <v>2556.314064852398</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2388.356114150272</v>
+        <v>820.0833217368508</v>
       </c>
       <c r="C22" t="n">
-        <v>2219.419931222365</v>
+        <v>675.9401786608609</v>
       </c>
       <c r="D22" t="n">
-        <v>2069.303291810029</v>
+        <v>525.8235392485251</v>
       </c>
       <c r="E22" t="n">
-        <v>1921.390198227636</v>
+        <v>377.910445666132</v>
       </c>
       <c r="F22" t="n">
-        <v>1774.500250729726</v>
+        <v>231.0204981682217</v>
       </c>
       <c r="G22" t="n">
-        <v>1606.73693785977</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="H22" t="n">
-        <v>1459.982062284063</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I22" t="n">
-        <v>1360.837699489821</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J22" t="n">
-        <v>1401.76974728116</v>
+        <v>104.1892330896045</v>
       </c>
       <c r="K22" t="n">
-        <v>1598.870512344151</v>
+        <v>301.2899981525961</v>
       </c>
       <c r="L22" t="n">
-        <v>1906.618066809411</v>
+        <v>609.0375526178559</v>
       </c>
       <c r="M22" t="n">
-        <v>2241.483836696416</v>
+        <v>943.903322504861</v>
       </c>
       <c r="N22" t="n">
-        <v>2573.821863459159</v>
+        <v>1276.241349267604</v>
       </c>
       <c r="O22" t="n">
-        <v>2864.773526128419</v>
+        <v>1567.193011936864</v>
       </c>
       <c r="P22" t="n">
-        <v>3090.212254766006</v>
+        <v>1792.63174057445</v>
       </c>
       <c r="Q22" t="n">
-        <v>3162.859264913287</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="R22" t="n">
-        <v>3070.309575796613</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="S22" t="n">
-        <v>3070.309575796613</v>
+        <v>1672.538930539087</v>
       </c>
       <c r="T22" t="n">
-        <v>3070.309575796613</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="U22" t="n">
-        <v>3070.309575796613</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.309575796613</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="W22" t="n">
-        <v>3018.786709022059</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="X22" t="n">
-        <v>2790.797158124042</v>
+        <v>1222.524365710621</v>
       </c>
       <c r="Y22" t="n">
-        <v>2570.004578980512</v>
+        <v>1001.731786567091</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1933.122607974678</v>
+        <v>1382.357710474969</v>
       </c>
       <c r="C23" t="n">
-        <v>1933.122607974678</v>
+        <v>1382.357710474969</v>
       </c>
       <c r="D23" t="n">
-        <v>1574.856909367928</v>
+        <v>1024.092011868218</v>
       </c>
       <c r="E23" t="n">
-        <v>1189.068656769684</v>
+        <v>638.3037592699739</v>
       </c>
       <c r="F23" t="n">
-        <v>778.0827519800762</v>
+        <v>478.4644568667063</v>
       </c>
       <c r="G23" t="n">
-        <v>362.8754804116356</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="H23" t="n">
-        <v>63.91114022004098</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I23" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J23" t="n">
-        <v>240.921229017471</v>
+        <v>240.9212290174714</v>
       </c>
       <c r="K23" t="n">
-        <v>557.932094146281</v>
+        <v>557.9320941462815</v>
       </c>
       <c r="L23" t="n">
-        <v>988.1138662147264</v>
+        <v>988.1138662147278</v>
       </c>
       <c r="M23" t="n">
-        <v>1498.44341223867</v>
+        <v>1498.443412238671</v>
       </c>
       <c r="N23" t="n">
-        <v>2021.644432229228</v>
+        <v>2021.644432229229</v>
       </c>
       <c r="O23" t="n">
-        <v>2502.353057924651</v>
+        <v>2502.353057924652</v>
       </c>
       <c r="P23" t="n">
         <v>2878.125747509621</v>
       </c>
       <c r="Q23" t="n">
-        <v>3112.142641353621</v>
+        <v>3112.142641353622</v>
       </c>
       <c r="R23" t="n">
-        <v>3162.859264913285</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="S23" t="n">
-        <v>3049.496353481684</v>
+        <v>3049.496353481686</v>
       </c>
       <c r="T23" t="n">
-        <v>3049.496353481684</v>
+        <v>2842.928425128587</v>
       </c>
       <c r="U23" t="n">
-        <v>3049.496353481684</v>
+        <v>2842.928425128587</v>
       </c>
       <c r="V23" t="n">
-        <v>3049.496353481684</v>
+        <v>2511.865537785016</v>
       </c>
       <c r="W23" t="n">
-        <v>2696.72769821157</v>
+        <v>2159.096882514902</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.26193995049</v>
+        <v>2159.096882514902</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.122607974678</v>
+        <v>1768.95755053909</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H24" t="n">
-        <v>74.52007295269583</v>
+        <v>74.52007295269586</v>
       </c>
       <c r="I24" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J24" t="n">
         <v>150.2548256598854</v>
       </c>
       <c r="K24" t="n">
-        <v>377.1024745431012</v>
+        <v>377.1024745431013</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4496743603843</v>
+        <v>728.4496743603844</v>
       </c>
       <c r="M24" t="n">
         <v>1157.812152742619</v>
@@ -6083,10 +6083,10 @@
         <v>1612.94722323545</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.698407544776</v>
+        <v>2007.087099684249</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.697340136969</v>
+        <v>2304.086032276442</v>
       </c>
       <c r="Q24" t="n">
         <v>2556.314064852398</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1360.83769948982</v>
+        <v>358.0602263785692</v>
       </c>
       <c r="C25" t="n">
-        <v>1360.83769948982</v>
+        <v>358.0602263785692</v>
       </c>
       <c r="D25" t="n">
-        <v>1360.83769948982</v>
+        <v>358.0602263785692</v>
       </c>
       <c r="E25" t="n">
-        <v>1360.83769948982</v>
+        <v>210.1471327961761</v>
       </c>
       <c r="F25" t="n">
-        <v>1360.83769948982</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="G25" t="n">
-        <v>1360.83769948982</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="H25" t="n">
-        <v>1360.83769948982</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I25" t="n">
-        <v>1360.83769948982</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="J25" t="n">
-        <v>1401.769747281159</v>
+        <v>104.1892330896046</v>
       </c>
       <c r="K25" t="n">
-        <v>1598.87051234415</v>
+        <v>301.2899981525961</v>
       </c>
       <c r="L25" t="n">
-        <v>1906.61806680941</v>
+        <v>609.0375526178559</v>
       </c>
       <c r="M25" t="n">
-        <v>2241.483836696415</v>
+        <v>943.903322504861</v>
       </c>
       <c r="N25" t="n">
-        <v>2573.821863459158</v>
+        <v>1276.241349267604</v>
       </c>
       <c r="O25" t="n">
-        <v>2864.773526128418</v>
+        <v>1567.193011936864</v>
       </c>
       <c r="P25" t="n">
-        <v>3090.212254766004</v>
+        <v>1792.63174057445</v>
       </c>
       <c r="Q25" t="n">
-        <v>3162.859264913285</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="R25" t="n">
-        <v>3162.859264913285</v>
+        <v>1772.729061605058</v>
       </c>
       <c r="S25" t="n">
-        <v>2970.11944473064</v>
+        <v>1579.989241422413</v>
       </c>
       <c r="T25" t="n">
-        <v>2748.094430800192</v>
+        <v>1357.964227491964</v>
       </c>
       <c r="U25" t="n">
-        <v>2458.98826522158</v>
+        <v>1357.964227491964</v>
       </c>
       <c r="V25" t="n">
-        <v>2204.303777015693</v>
+        <v>1103.279739286077</v>
       </c>
       <c r="W25" t="n">
-        <v>1914.886606978733</v>
+        <v>988.4908212503564</v>
       </c>
       <c r="X25" t="n">
-        <v>1686.897056080715</v>
+        <v>760.501270352339</v>
       </c>
       <c r="Y25" t="n">
-        <v>1466.104476937185</v>
+        <v>539.7086912088089</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.713009373763</v>
+        <v>2100.02043788266</v>
       </c>
       <c r="C26" t="n">
-        <v>1269.713009373763</v>
+        <v>1932.468653052903</v>
       </c>
       <c r="D26" t="n">
-        <v>911.4473107670126</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="E26" t="n">
-        <v>525.6590581687683</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F26" t="n">
-        <v>525.6590581687683</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G26" t="n">
-        <v>110.4517866003277</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4517866003277</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I26" t="n">
-        <v>63.25718529826573</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J26" t="n">
-        <v>240.9212290174714</v>
+        <v>240.921229017471</v>
       </c>
       <c r="K26" t="n">
-        <v>557.9320941462815</v>
+        <v>557.932094146281</v>
       </c>
       <c r="L26" t="n">
-        <v>988.1138662147278</v>
+        <v>988.1138662147259</v>
       </c>
       <c r="M26" t="n">
-        <v>1498.443412238671</v>
+        <v>1498.443412238669</v>
       </c>
       <c r="N26" t="n">
-        <v>2021.644432229229</v>
+        <v>2021.644432229228</v>
       </c>
       <c r="O26" t="n">
-        <v>2502.353057924652</v>
+        <v>2502.35305792465</v>
       </c>
       <c r="P26" t="n">
-        <v>2878.125747509621</v>
+        <v>2878.12574750962</v>
       </c>
       <c r="Q26" t="n">
-        <v>3112.142641353622</v>
+        <v>3112.142641353621</v>
       </c>
       <c r="R26" t="n">
-        <v>3162.859264913287</v>
+        <v>3162.859264913285</v>
       </c>
       <c r="S26" t="n">
-        <v>3049.496353481686</v>
+        <v>3049.496353481684</v>
       </c>
       <c r="T26" t="n">
-        <v>2842.928425128587</v>
+        <v>2842.928425128586</v>
       </c>
       <c r="U26" t="n">
-        <v>2589.387162689349</v>
+        <v>2842.928425128586</v>
       </c>
       <c r="V26" t="n">
-        <v>2399.220836683811</v>
+        <v>2842.928425128586</v>
       </c>
       <c r="W26" t="n">
-        <v>2046.452181413697</v>
+        <v>2490.159769858471</v>
       </c>
       <c r="X26" t="n">
-        <v>2046.452181413697</v>
+        <v>2490.159769858471</v>
       </c>
       <c r="Y26" t="n">
-        <v>1656.312849437885</v>
+        <v>2100.02043788266</v>
       </c>
     </row>
     <row r="27">
@@ -6299,19 +6299,19 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H27" t="n">
-        <v>74.52007295269586</v>
+        <v>74.52007295269583</v>
       </c>
       <c r="I27" t="n">
-        <v>63.25718529826573</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J27" t="n">
         <v>150.2548256598854</v>
       </c>
       <c r="K27" t="n">
-        <v>377.1024745431013</v>
+        <v>377.1024745431012</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4496743603844</v>
+        <v>728.4496743603843</v>
       </c>
       <c r="M27" t="n">
         <v>1157.812152742619</v>
@@ -6320,10 +6320,10 @@
         <v>1612.94722323545</v>
       </c>
       <c r="O27" t="n">
-        <v>2007.087099684249</v>
+        <v>2110.698407544776</v>
       </c>
       <c r="P27" t="n">
-        <v>2304.086032276442</v>
+        <v>2407.697340136969</v>
       </c>
       <c r="Q27" t="n">
         <v>2556.314064852398</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>944.0207243830102</v>
+        <v>376.4827990183236</v>
       </c>
       <c r="C28" t="n">
-        <v>775.0845414551034</v>
+        <v>376.4827990183236</v>
       </c>
       <c r="D28" t="n">
-        <v>624.9679020427676</v>
+        <v>231.0204981682217</v>
       </c>
       <c r="E28" t="n">
-        <v>477.0548084603745</v>
+        <v>231.0204981682217</v>
       </c>
       <c r="F28" t="n">
-        <v>330.1648609624641</v>
+        <v>231.0204981682217</v>
       </c>
       <c r="G28" t="n">
-        <v>162.4015480925081</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="H28" t="n">
-        <v>162.4015480925081</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I28" t="n">
-        <v>63.25718529826573</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J28" t="n">
-        <v>104.1892330896046</v>
+        <v>104.1892330896045</v>
       </c>
       <c r="K28" t="n">
         <v>301.2899981525961</v>
@@ -6408,28 +6408,28 @@
         <v>1865.278750721732</v>
       </c>
       <c r="R28" t="n">
-        <v>1865.278750721732</v>
+        <v>1772.729061605058</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.278750721732</v>
+        <v>1772.729061605058</v>
       </c>
       <c r="T28" t="n">
-        <v>1865.278750721732</v>
+        <v>1550.704047674609</v>
       </c>
       <c r="U28" t="n">
-        <v>1863.868489291758</v>
+        <v>1261.597882095998</v>
       </c>
       <c r="V28" t="n">
-        <v>1863.868489291758</v>
+        <v>1006.913393890111</v>
       </c>
       <c r="W28" t="n">
-        <v>1574.451319254797</v>
+        <v>1006.913393890111</v>
       </c>
       <c r="X28" t="n">
-        <v>1346.46176835678</v>
+        <v>778.9238429920935</v>
       </c>
       <c r="Y28" t="n">
-        <v>1125.66918921325</v>
+        <v>558.1312638485633</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>755.3506897746493</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="C29" t="n">
-        <v>386.3881728342375</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="D29" t="n">
-        <v>386.3881728342375</v>
+        <v>1574.202954446153</v>
       </c>
       <c r="E29" t="n">
-        <v>386.3881728342375</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F29" t="n">
-        <v>110.4517866003277</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G29" t="n">
-        <v>110.4517866003277</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4517866003277</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I29" t="n">
         <v>63.2571852982657</v>
@@ -6496,19 +6496,19 @@
         <v>2842.928425128586</v>
       </c>
       <c r="U29" t="n">
-        <v>2589.387162689347</v>
+        <v>2842.928425128586</v>
       </c>
       <c r="V29" t="n">
-        <v>2258.324275345777</v>
+        <v>2842.928425128586</v>
       </c>
       <c r="W29" t="n">
-        <v>1905.555620075663</v>
+        <v>2724.407884747166</v>
       </c>
       <c r="X29" t="n">
-        <v>1532.089861814583</v>
+        <v>2350.942126486086</v>
       </c>
       <c r="Y29" t="n">
-        <v>1141.950529838771</v>
+        <v>1960.802794510274</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>63.2571852982657</v>
       </c>
       <c r="J30" t="n">
-        <v>150.2548256598854</v>
+        <v>253.8661335204127</v>
       </c>
       <c r="K30" t="n">
-        <v>377.1024745431012</v>
+        <v>480.7137824036286</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4496743603843</v>
+        <v>832.0609822209117</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.812152742619</v>
+        <v>1261.423460603146</v>
       </c>
       <c r="N30" t="n">
         <v>1716.558531095977</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>942.8625063763236</v>
+        <v>469.5495370192962</v>
       </c>
       <c r="C31" t="n">
-        <v>773.9263234484167</v>
+        <v>300.6133540913893</v>
       </c>
       <c r="D31" t="n">
-        <v>623.809684036081</v>
+        <v>300.6133540913893</v>
       </c>
       <c r="E31" t="n">
-        <v>623.809684036081</v>
+        <v>210.1471327961761</v>
       </c>
       <c r="F31" t="n">
-        <v>476.9197365381706</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="G31" t="n">
-        <v>309.1564236682146</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="H31" t="n">
-        <v>162.4015480925081</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I31" t="n">
         <v>63.2571852982657</v>
@@ -6648,25 +6648,25 @@
         <v>1865.278750721732</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.278750721732</v>
+        <v>1672.538930539087</v>
       </c>
       <c r="T31" t="n">
-        <v>1865.278750721732</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="U31" t="n">
-        <v>1668.612629449411</v>
+        <v>1161.407751030027</v>
       </c>
       <c r="V31" t="n">
-        <v>1413.928141243524</v>
+        <v>1161.407751030027</v>
       </c>
       <c r="W31" t="n">
-        <v>1124.510971206563</v>
+        <v>871.990580993066</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.510971206563</v>
+        <v>871.990580993066</v>
       </c>
       <c r="Y31" t="n">
-        <v>1124.510971206563</v>
+        <v>651.1980018495359</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>836.7301554734568</v>
+        <v>1145.490021750462</v>
       </c>
       <c r="C32" t="n">
-        <v>836.7301554734568</v>
+        <v>879.7033899966857</v>
       </c>
       <c r="D32" t="n">
-        <v>478.4644568667063</v>
+        <v>521.4376913899353</v>
       </c>
       <c r="E32" t="n">
-        <v>478.4644568667063</v>
+        <v>521.4376913899353</v>
       </c>
       <c r="F32" t="n">
-        <v>478.4644568667063</v>
+        <v>110.4517866003277</v>
       </c>
       <c r="G32" t="n">
-        <v>63.25718529826573</v>
+        <v>110.4517866003277</v>
       </c>
       <c r="H32" t="n">
-        <v>63.25718529826573</v>
+        <v>110.4517866003277</v>
       </c>
       <c r="I32" t="n">
         <v>63.25718529826573</v>
@@ -6733,19 +6733,19 @@
         <v>2842.928425128587</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.766628388155</v>
+        <v>2589.387162689349</v>
       </c>
       <c r="V32" t="n">
-        <v>2339.703741044584</v>
+        <v>2258.324275345778</v>
       </c>
       <c r="W32" t="n">
-        <v>1986.93508577447</v>
+        <v>1905.555620075664</v>
       </c>
       <c r="X32" t="n">
-        <v>1613.46932751339</v>
+        <v>1532.089861814584</v>
       </c>
       <c r="Y32" t="n">
-        <v>1223.329995537578</v>
+        <v>1532.089861814584</v>
       </c>
     </row>
     <row r="33">
@@ -6779,10 +6779,10 @@
         <v>63.25718529826573</v>
       </c>
       <c r="J33" t="n">
-        <v>253.8661335204127</v>
+        <v>150.2548256598854</v>
       </c>
       <c r="K33" t="n">
-        <v>480.7137824036286</v>
+        <v>377.1024745431013</v>
       </c>
       <c r="L33" t="n">
         <v>832.0609822209117</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>690.7464976070967</v>
+        <v>530.9771561582395</v>
       </c>
       <c r="C34" t="n">
-        <v>690.7464976070967</v>
+        <v>530.9771561582395</v>
       </c>
       <c r="D34" t="n">
-        <v>540.6298581947609</v>
+        <v>380.8605167459037</v>
       </c>
       <c r="E34" t="n">
-        <v>392.7167646123678</v>
+        <v>380.8605167459037</v>
       </c>
       <c r="F34" t="n">
-        <v>330.1648609624641</v>
+        <v>380.8605167459037</v>
       </c>
       <c r="G34" t="n">
-        <v>162.4015480925081</v>
+        <v>309.1564236682146</v>
       </c>
       <c r="H34" t="n">
         <v>162.4015480925081</v>
@@ -6885,25 +6885,25 @@
         <v>1865.278750721732</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.278750721732</v>
+        <v>1672.538930539087</v>
       </c>
       <c r="T34" t="n">
-        <v>1865.278750721732</v>
+        <v>1450.513916608638</v>
       </c>
       <c r="U34" t="n">
-        <v>1865.278750721732</v>
+        <v>1161.407751030027</v>
       </c>
       <c r="V34" t="n">
-        <v>1610.594262515845</v>
+        <v>1161.407751030027</v>
       </c>
       <c r="W34" t="n">
-        <v>1321.177092478884</v>
+        <v>1161.407751030027</v>
       </c>
       <c r="X34" t="n">
-        <v>1093.187541580867</v>
+        <v>933.4182001320094</v>
       </c>
       <c r="Y34" t="n">
-        <v>872.3949624373364</v>
+        <v>712.6256209884792</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1721.984216452949</v>
+        <v>1915.642917395071</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.021699512537</v>
+        <v>1546.680400454659</v>
       </c>
       <c r="D35" t="n">
-        <v>1353.021699512537</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="E35" t="n">
-        <v>967.2334469142932</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F35" t="n">
-        <v>556.2475421246857</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G35" t="n">
-        <v>409.4161267919224</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H35" t="n">
-        <v>110.4517866003277</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I35" t="n">
         <v>63.2571852982657</v>
@@ -6943,19 +6943,19 @@
         <v>557.932094146281</v>
       </c>
       <c r="L35" t="n">
-        <v>988.1138662147259</v>
+        <v>988.1138662147264</v>
       </c>
       <c r="M35" t="n">
-        <v>1498.443412238669</v>
+        <v>1498.44341223867</v>
       </c>
       <c r="N35" t="n">
         <v>2021.644432229228</v>
       </c>
       <c r="O35" t="n">
-        <v>2502.35305792465</v>
+        <v>2502.353057924651</v>
       </c>
       <c r="P35" t="n">
-        <v>2878.12574750962</v>
+        <v>2878.125747509621</v>
       </c>
       <c r="Q35" t="n">
         <v>3112.142641353621</v>
@@ -6964,25 +6964,25 @@
         <v>3162.859264913285</v>
       </c>
       <c r="S35" t="n">
-        <v>3049.496353481684</v>
+        <v>3080.280753792058</v>
       </c>
       <c r="T35" t="n">
-        <v>3049.496353481684</v>
+        <v>2873.712825438959</v>
       </c>
       <c r="U35" t="n">
-        <v>2795.955091042446</v>
+        <v>2620.171562999721</v>
       </c>
       <c r="V35" t="n">
-        <v>2464.892203698875</v>
+        <v>2289.10867565615</v>
       </c>
       <c r="W35" t="n">
-        <v>2112.123548428761</v>
+        <v>2289.10867565615</v>
       </c>
       <c r="X35" t="n">
-        <v>2112.123548428761</v>
+        <v>1915.642917395071</v>
       </c>
       <c r="Y35" t="n">
-        <v>1721.984216452949</v>
+        <v>1915.642917395071</v>
       </c>
     </row>
     <row r="36">
@@ -7016,10 +7016,10 @@
         <v>63.2571852982657</v>
       </c>
       <c r="J36" t="n">
-        <v>150.2548256598854</v>
+        <v>253.8661335204127</v>
       </c>
       <c r="K36" t="n">
-        <v>377.1024745431012</v>
+        <v>480.7137824036286</v>
       </c>
       <c r="L36" t="n">
         <v>832.0609822209117</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1477.195832289591</v>
+        <v>694.759722176432</v>
       </c>
       <c r="C37" t="n">
-        <v>1360.83769948982</v>
+        <v>525.8235392485251</v>
       </c>
       <c r="D37" t="n">
-        <v>1360.83769948982</v>
+        <v>525.8235392485251</v>
       </c>
       <c r="E37" t="n">
-        <v>1360.83769948982</v>
+        <v>377.910445666132</v>
       </c>
       <c r="F37" t="n">
-        <v>1360.83769948982</v>
+        <v>231.0204981682217</v>
       </c>
       <c r="G37" t="n">
-        <v>1360.83769948982</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="H37" t="n">
-        <v>1360.83769948982</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="I37" t="n">
-        <v>1360.83769948982</v>
+        <v>63.2571852982657</v>
       </c>
       <c r="J37" t="n">
-        <v>1401.769747281159</v>
+        <v>104.1892330896045</v>
       </c>
       <c r="K37" t="n">
-        <v>1598.87051234415</v>
+        <v>301.2899981525961</v>
       </c>
       <c r="L37" t="n">
-        <v>1906.61806680941</v>
+        <v>609.0375526178559</v>
       </c>
       <c r="M37" t="n">
-        <v>2241.483836696415</v>
+        <v>943.903322504861</v>
       </c>
       <c r="N37" t="n">
-        <v>2573.821863459158</v>
+        <v>1276.241349267604</v>
       </c>
       <c r="O37" t="n">
-        <v>2864.773526128418</v>
+        <v>1567.193011936864</v>
       </c>
       <c r="P37" t="n">
-        <v>3090.212254766004</v>
+        <v>1792.63174057445</v>
       </c>
       <c r="Q37" t="n">
-        <v>3162.859264913285</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="R37" t="n">
-        <v>3162.859264913285</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="S37" t="n">
-        <v>3162.859264913285</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="T37" t="n">
-        <v>2940.834250982837</v>
+        <v>1865.278750721732</v>
       </c>
       <c r="U37" t="n">
-        <v>2651.728085404225</v>
+        <v>1576.17258514312</v>
       </c>
       <c r="V37" t="n">
-        <v>2397.043597198338</v>
+        <v>1321.488096937233</v>
       </c>
       <c r="W37" t="n">
-        <v>2107.626427161378</v>
+        <v>1321.488096937233</v>
       </c>
       <c r="X37" t="n">
-        <v>1879.63687626336</v>
+        <v>1093.498546039216</v>
       </c>
       <c r="Y37" t="n">
-        <v>1658.84429711983</v>
+        <v>872.7059668956857</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1108.119345044765</v>
+        <v>1428.050184829464</v>
       </c>
       <c r="C38" t="n">
-        <v>1108.119345044765</v>
+        <v>1059.087667889052</v>
       </c>
       <c r="D38" t="n">
-        <v>1108.119345044765</v>
+        <v>700.821969282302</v>
       </c>
       <c r="E38" t="n">
-        <v>1108.119345044765</v>
+        <v>700.821969282302</v>
       </c>
       <c r="F38" t="n">
-        <v>824.6233983603629</v>
+        <v>478.4644568667063</v>
       </c>
       <c r="G38" t="n">
-        <v>409.4161267919224</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="H38" t="n">
-        <v>110.4517866003277</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="I38" t="n">
         <v>63.25718529826573</v>
@@ -7201,25 +7201,25 @@
         <v>3162.859264913287</v>
       </c>
       <c r="S38" t="n">
-        <v>3049.496353481686</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="T38" t="n">
-        <v>2842.928425128587</v>
+        <v>3162.859264913287</v>
       </c>
       <c r="U38" t="n">
-        <v>2589.387162689349</v>
+        <v>2909.318002474048</v>
       </c>
       <c r="V38" t="n">
-        <v>2258.324275345778</v>
+        <v>2578.255115130477</v>
       </c>
       <c r="W38" t="n">
-        <v>2258.324275345778</v>
+        <v>2578.255115130477</v>
       </c>
       <c r="X38" t="n">
-        <v>1884.858517084698</v>
+        <v>2204.789356869398</v>
       </c>
       <c r="Y38" t="n">
-        <v>1494.719185108886</v>
+        <v>1814.650024893586</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>63.25718529826573</v>
       </c>
       <c r="J39" t="n">
-        <v>150.2548256598854</v>
+        <v>213.3307823670669</v>
       </c>
       <c r="K39" t="n">
-        <v>377.1024745431013</v>
+        <v>440.1784312502828</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4496743603844</v>
+        <v>791.5256310675659</v>
       </c>
       <c r="M39" t="n">
-        <v>1157.812152742619</v>
+        <v>1220.8881094498</v>
       </c>
       <c r="N39" t="n">
-        <v>1612.94722323545</v>
+        <v>1676.023179942631</v>
       </c>
       <c r="O39" t="n">
-        <v>2007.087099684249</v>
+        <v>2070.16305639143</v>
       </c>
       <c r="P39" t="n">
-        <v>2304.086032276442</v>
+        <v>2367.161988983623</v>
       </c>
       <c r="Q39" t="n">
-        <v>2556.314064852398</v>
+        <v>2515.778713699052</v>
       </c>
       <c r="R39" t="n">
         <v>2556.314064852398</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.7753737439282</v>
+        <v>232.1933682261727</v>
       </c>
       <c r="C40" t="n">
-        <v>377.7753737439282</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="D40" t="n">
-        <v>377.7753737439282</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="E40" t="n">
-        <v>377.7753737439282</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="F40" t="n">
-        <v>377.7753737439282</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="G40" t="n">
-        <v>210.0120608739723</v>
+        <v>63.25718529826573</v>
       </c>
       <c r="H40" t="n">
         <v>63.25718529826573</v>
@@ -7365,19 +7365,19 @@
         <v>1357.964227491964</v>
       </c>
       <c r="U40" t="n">
-        <v>1069.633587754659</v>
+        <v>1357.964227491964</v>
       </c>
       <c r="V40" t="n">
-        <v>1069.633587754659</v>
+        <v>1103.279739286077</v>
       </c>
       <c r="W40" t="n">
-        <v>780.2164177176981</v>
+        <v>813.8625692491164</v>
       </c>
       <c r="X40" t="n">
-        <v>780.2164177176981</v>
+        <v>585.8730183510991</v>
       </c>
       <c r="Y40" t="n">
-        <v>559.4238385741679</v>
+        <v>365.0804392075689</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1692.723494827574</v>
+        <v>1557.37721878832</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.723494827574</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="D41" t="n">
-        <v>1334.457796220823</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="E41" t="n">
-        <v>948.6695436225791</v>
+        <v>1188.414701847908</v>
       </c>
       <c r="F41" t="n">
-        <v>537.6836388329716</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G41" t="n">
-        <v>122.4763672645311</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H41" t="n">
-        <v>110.4517866003277</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="I41" t="n">
-        <v>63.25718529826573</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J41" t="n">
-        <v>240.9212290174714</v>
+        <v>240.921229017471</v>
       </c>
       <c r="K41" t="n">
-        <v>557.9320941462815</v>
+        <v>557.9320941462809</v>
       </c>
       <c r="L41" t="n">
-        <v>988.1138662147278</v>
+        <v>988.1138662147262</v>
       </c>
       <c r="M41" t="n">
-        <v>1498.443412238671</v>
+        <v>1498.44341223867</v>
       </c>
       <c r="N41" t="n">
-        <v>2021.644432229229</v>
+        <v>2021.644432229228</v>
       </c>
       <c r="O41" t="n">
-        <v>2502.353057924652</v>
+        <v>2502.35305792465</v>
       </c>
       <c r="P41" t="n">
-        <v>2878.125747509621</v>
+        <v>2878.12574750962</v>
       </c>
       <c r="Q41" t="n">
-        <v>3112.142641353622</v>
+        <v>3112.14264135362</v>
       </c>
       <c r="R41" t="n">
-        <v>3162.859264913287</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="S41" t="n">
-        <v>3049.496353481686</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="T41" t="n">
-        <v>2842.928425128587</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="U41" t="n">
-        <v>2842.928425128587</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="V41" t="n">
-        <v>2842.928425128587</v>
+        <v>2831.796377569715</v>
       </c>
       <c r="W41" t="n">
-        <v>2842.928425128587</v>
+        <v>2479.027722299601</v>
       </c>
       <c r="X41" t="n">
-        <v>2469.462666867507</v>
+        <v>2105.561964038521</v>
       </c>
       <c r="Y41" t="n">
-        <v>2079.323334891696</v>
+        <v>1943.977058852442</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H42" t="n">
-        <v>74.52007295269586</v>
+        <v>74.52007295269587</v>
       </c>
       <c r="I42" t="n">
-        <v>63.25718529826573</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J42" t="n">
-        <v>150.2548256598854</v>
+        <v>150.2548256598853</v>
       </c>
       <c r="K42" t="n">
-        <v>377.1024745431013</v>
+        <v>440.1784312502833</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4496743603844</v>
+        <v>791.5256310675663</v>
       </c>
       <c r="M42" t="n">
-        <v>1157.812152742619</v>
+        <v>1220.888109449801</v>
       </c>
       <c r="N42" t="n">
-        <v>1612.94722323545</v>
+        <v>1676.023179942631</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.698407544776</v>
+        <v>2070.16305639143</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.697340136969</v>
+        <v>2367.161988983623</v>
       </c>
       <c r="Q42" t="n">
-        <v>2556.314064852398</v>
+        <v>2515.778713699052</v>
       </c>
       <c r="R42" t="n">
         <v>2556.314064852398</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1658.844297119832</v>
+        <v>341.7501171872491</v>
       </c>
       <c r="C43" t="n">
-        <v>1658.844297119832</v>
+        <v>172.8139342593422</v>
       </c>
       <c r="D43" t="n">
-        <v>1658.844297119832</v>
+        <v>162.4015480925082</v>
       </c>
       <c r="E43" t="n">
-        <v>1528.601012359777</v>
+        <v>162.4015480925082</v>
       </c>
       <c r="F43" t="n">
-        <v>1528.601012359777</v>
+        <v>162.4015480925082</v>
       </c>
       <c r="G43" t="n">
-        <v>1360.837699489821</v>
+        <v>162.4015480925082</v>
       </c>
       <c r="H43" t="n">
-        <v>1360.837699489821</v>
+        <v>162.4015480925082</v>
       </c>
       <c r="I43" t="n">
-        <v>1360.837699489821</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J43" t="n">
-        <v>1401.76974728116</v>
+        <v>104.1892330896045</v>
       </c>
       <c r="K43" t="n">
-        <v>1598.870512344151</v>
+        <v>301.289998152596</v>
       </c>
       <c r="L43" t="n">
-        <v>1906.618066809411</v>
+        <v>609.0375526178557</v>
       </c>
       <c r="M43" t="n">
-        <v>2241.483836696416</v>
+        <v>943.9033225048606</v>
       </c>
       <c r="N43" t="n">
-        <v>2573.821863459159</v>
+        <v>1276.241349267603</v>
       </c>
       <c r="O43" t="n">
-        <v>2864.773526128419</v>
+        <v>1567.193011936864</v>
       </c>
       <c r="P43" t="n">
-        <v>3090.212254766006</v>
+        <v>1792.63174057445</v>
       </c>
       <c r="Q43" t="n">
-        <v>3162.859264913287</v>
+        <v>1865.278750721731</v>
       </c>
       <c r="R43" t="n">
-        <v>3162.859264913287</v>
+        <v>1772.729061605057</v>
       </c>
       <c r="S43" t="n">
-        <v>3162.859264913287</v>
+        <v>1772.729061605057</v>
       </c>
       <c r="T43" t="n">
-        <v>2940.834250982838</v>
+        <v>1550.704047674608</v>
       </c>
       <c r="U43" t="n">
-        <v>2651.728085404226</v>
+        <v>1261.597882095997</v>
       </c>
       <c r="V43" t="n">
-        <v>2397.04359719834</v>
+        <v>1261.597882095997</v>
       </c>
       <c r="W43" t="n">
-        <v>2107.626427161379</v>
+        <v>972.1807120590363</v>
       </c>
       <c r="X43" t="n">
-        <v>1879.636876263362</v>
+        <v>744.191161161019</v>
       </c>
       <c r="Y43" t="n">
-        <v>1658.844297119832</v>
+        <v>523.3985820174888</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1645.452773246183</v>
+        <v>1532.179566596957</v>
       </c>
       <c r="C44" t="n">
-        <v>1276.490256305771</v>
+        <v>1163.217049656545</v>
       </c>
       <c r="D44" t="n">
-        <v>1235.60930314997</v>
+        <v>1163.217049656545</v>
       </c>
       <c r="E44" t="n">
-        <v>1235.60930314997</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="F44" t="n">
-        <v>824.6233983603629</v>
+        <v>777.4287970583009</v>
       </c>
       <c r="G44" t="n">
-        <v>409.4161267919224</v>
+        <v>362.2215254898604</v>
       </c>
       <c r="H44" t="n">
-        <v>110.4517866003277</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="I44" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J44" t="n">
-        <v>240.9212290174711</v>
+        <v>240.921229017471</v>
       </c>
       <c r="K44" t="n">
-        <v>557.9320941462811</v>
+        <v>557.9320941462809</v>
       </c>
       <c r="L44" t="n">
-        <v>988.1138662147259</v>
+        <v>988.1138662147262</v>
       </c>
       <c r="M44" t="n">
-        <v>1498.443412238669</v>
+        <v>1498.44341223867</v>
       </c>
       <c r="N44" t="n">
         <v>2021.644432229228</v>
       </c>
       <c r="O44" t="n">
-        <v>2502.35305792465</v>
+        <v>2502.353057924652</v>
       </c>
       <c r="P44" t="n">
-        <v>2878.12574750962</v>
+        <v>2878.125747509622</v>
       </c>
       <c r="Q44" t="n">
-        <v>3112.14264135362</v>
+        <v>3112.142641353622</v>
       </c>
       <c r="R44" t="n">
-        <v>3162.859264913285</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="S44" t="n">
-        <v>3162.859264913285</v>
+        <v>3162.859264913286</v>
       </c>
       <c r="T44" t="n">
-        <v>2956.291336560186</v>
+        <v>2956.291336560188</v>
       </c>
       <c r="U44" t="n">
-        <v>2702.750074120948</v>
+        <v>2702.750074120949</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.687186777377</v>
+        <v>2371.687186777378</v>
       </c>
       <c r="W44" t="n">
-        <v>2018.918531507263</v>
+        <v>2292.245164922158</v>
       </c>
       <c r="X44" t="n">
-        <v>1645.452773246183</v>
+        <v>1918.779406661079</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.452773246183</v>
+        <v>1918.779406661079</v>
       </c>
     </row>
     <row r="45">
@@ -7721,19 +7721,19 @@
         <v>165.7186474295132</v>
       </c>
       <c r="H45" t="n">
-        <v>74.52007295269583</v>
+        <v>74.52007295269587</v>
       </c>
       <c r="I45" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J45" t="n">
-        <v>253.8661335204127</v>
+        <v>150.2548256598853</v>
       </c>
       <c r="K45" t="n">
-        <v>480.7137824036286</v>
+        <v>480.7137824036291</v>
       </c>
       <c r="L45" t="n">
-        <v>832.0609822209117</v>
+        <v>832.0609822209121</v>
       </c>
       <c r="M45" t="n">
         <v>1261.423460603146</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>400.4078972415667</v>
+        <v>524.6653212418386</v>
       </c>
       <c r="C46" t="n">
-        <v>360.2637722085118</v>
+        <v>524.6653212418386</v>
       </c>
       <c r="D46" t="n">
-        <v>210.147132796176</v>
+        <v>524.6653212418386</v>
       </c>
       <c r="E46" t="n">
-        <v>210.147132796176</v>
+        <v>524.6653212418386</v>
       </c>
       <c r="F46" t="n">
-        <v>63.2571852982657</v>
+        <v>377.7753737439282</v>
       </c>
       <c r="G46" t="n">
-        <v>63.2571852982657</v>
+        <v>210.0120608739722</v>
       </c>
       <c r="H46" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="I46" t="n">
-        <v>63.2571852982657</v>
+        <v>63.25718529826572</v>
       </c>
       <c r="J46" t="n">
         <v>104.1892330896045</v>
       </c>
       <c r="K46" t="n">
-        <v>301.2899981525961</v>
+        <v>301.289998152596</v>
       </c>
       <c r="L46" t="n">
-        <v>609.0375526178559</v>
+        <v>609.0375526178557</v>
       </c>
       <c r="M46" t="n">
-        <v>943.903322504861</v>
+        <v>943.9033225048606</v>
       </c>
       <c r="N46" t="n">
-        <v>1276.241349267604</v>
+        <v>1276.241349267603</v>
       </c>
       <c r="O46" t="n">
         <v>1567.193011936864</v>
@@ -7827,31 +7827,31 @@
         <v>1792.63174057445</v>
       </c>
       <c r="Q46" t="n">
-        <v>1865.278750721732</v>
+        <v>1865.278750721731</v>
       </c>
       <c r="R46" t="n">
-        <v>1865.278750721732</v>
+        <v>1865.278750721731</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.278750721732</v>
+        <v>1672.538930539086</v>
       </c>
       <c r="T46" t="n">
-        <v>1643.253736791283</v>
+        <v>1450.513916608637</v>
       </c>
       <c r="U46" t="n">
-        <v>1354.147571212671</v>
+        <v>1250.415444314926</v>
       </c>
       <c r="V46" t="n">
-        <v>1099.463083006784</v>
+        <v>995.730956109039</v>
       </c>
       <c r="W46" t="n">
-        <v>810.0459129698238</v>
+        <v>706.3137860720783</v>
       </c>
       <c r="X46" t="n">
-        <v>582.0563620718065</v>
+        <v>706.3137860720783</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.0563620718065</v>
+        <v>706.3137860720783</v>
       </c>
     </row>
   </sheetData>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>104.6578867278054</v>
       </c>
       <c r="M12" t="n">
-        <v>63.71308758301166</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>4.576870666526958</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.6578867278053</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6578867278043</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.576870666526929</v>
+        <v>4.576870666526958</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>104.6578867278054</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104.6578867278061</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.576870666526986</v>
+        <v>4.576870666526958</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>63.71308758301166</v>
       </c>
       <c r="K21" t="n">
-        <v>104.6578867278054</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.576870666526958</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>104.6578867278053</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.657886727805</v>
       </c>
       <c r="R24" t="n">
         <v>4.576870666526958</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>104.6578867278053</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.657886727805</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>4.576870666526958</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>104.6578867278054</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>104.6578867278055</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>104.6578867278054</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>104.6578867278054</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6578867278054</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>63.71308758301163</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.657886727805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.576870666526958</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>63.7130875830124</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.6578867278053</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.576870666526958</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.6578867278054</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>104.6578867278062</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.576870666526958</v>
+        <v>4.576870666526986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>156.7624752526335</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>75.10990395508858</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0058498148462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.15291916629997</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>219.8047637911441</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2151039228253</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.9433481645735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>223.1065102322887</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>34.78336396006995</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>253.8146389334678</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.0551988527561</v>
@@ -23515,7 +23515,7 @@
         <v>295.9746967896787</v>
       </c>
       <c r="I14" t="n">
-        <v>46.72265528904131</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.64136549377628</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>91.62419222550696</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2151039228253</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.8998922761168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>75.10990395508907</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>112.229282317285</v>
       </c>
       <c r="T17" t="n">
-        <v>204.5022490695675</v>
+        <v>0.4761856349081199</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0058498148462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.86579859931457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.15291916629997</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>91.62419222550696</v>
       </c>
       <c r="S19" t="n">
         <v>190.8124219808184</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>197.3395964468041</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>137.8781764811841</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>112.229282317285</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0058498148462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>385.8779942440088</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24.54510945339774</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.15291916629997</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>91.62419222550696</v>
       </c>
       <c r="S22" t="n">
-        <v>190.8124219808184</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.8047637911441</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2151039228253</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5153602297824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>248.6351363624765</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I23" t="n">
-        <v>46.07523991648382</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.0058498148462</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.61787050904525</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0856797412564</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.62419222550696</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>172.8819694812275</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>199.3966247895486</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>295.9746967896787</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0058498148462</v>
       </c>
       <c r="V26" t="n">
-        <v>139.4875957246524</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.607795176611461</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>145.2873268199495</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.15291916629997</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.62419222550696</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.8124219808184</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8047637911441</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.8189451071514</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>133.6990233701407</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0551988527561</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>295.9746967896787</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0058498148462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>231.9056337398075</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>56.87240356430809</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.15291916629997</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>91.62419222550696</v>
       </c>
       <c r="S31" t="n">
-        <v>190.8124219808184</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.8047637911441</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>91.51564386322784</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>102.1441263347687</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.0551988527561</v>
       </c>
       <c r="H32" t="n">
         <v>295.9746967896787</v>
       </c>
       <c r="I32" t="n">
-        <v>46.72265528904134</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>80.56567104181829</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.49466340952659</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>95.09862759434419</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>91.62419222550696</v>
       </c>
       <c r="S34" t="n">
-        <v>190.8124219808184</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.8047637911441</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2151039228253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>265.6920976733205</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>30.47655630727007</v>
       </c>
       <c r="T35" t="n">
-        <v>204.5022490695675</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.665197909876099</v>
       </c>
       <c r="C37" t="n">
-        <v>52.0522696268545</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.2873268199495</v>
@@ -25365,7 +25365,7 @@
         <v>190.8124219808184</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.8047637911441</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>126.2150585241537</v>
+        <v>186.7421084502717</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>295.9746967896787</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>46.72265528904134</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>112.229282317285</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>48.27377991035499</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2873268199495</v>
       </c>
       <c r="I40" t="n">
         <v>98.15291916629997</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.7677705828930357</v>
+        <v>286.2151039228253</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>284.0703619321174</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>46.72265528904137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>112.229282317285</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>204.5022490695675</v>
       </c>
       <c r="U41" t="n">
         <v>251.0058498148462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>226.268882521835</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>138.3072107130467</v>
       </c>
       <c r="E43" t="n">
-        <v>17.49311073411511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0856797412564</v>
       </c>
       <c r="H43" t="n">
         <v>145.2873268199495</v>
       </c>
       <c r="I43" t="n">
-        <v>98.15291916629997</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.62419222550696</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.8124219808184</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>314.2108979964399</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>46.72265528904137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.5933670807452</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>127.5041373159034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0856797412564</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.2873268199495</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.15291916629997</v>
+        <v>98.15291916629999</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>91.62419222550696</v>
+        <v>91.62419222550697</v>
       </c>
       <c r="S46" t="n">
-        <v>190.8124219808184</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>88.11761635205119</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734025.7190958641</v>
+        <v>734025.7190958642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734025.7190958644</v>
+        <v>734025.7190958643</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734025.7190958643</v>
+        <v>734025.7190958644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734025.7190958642</v>
+        <v>734025.7190958643</v>
       </c>
     </row>
     <row r="14">
@@ -26319,13 +26319,13 @@
         <v>553080.6100171965</v>
       </c>
       <c r="D2" t="n">
-        <v>553081.9838233106</v>
+        <v>553081.9838233107</v>
       </c>
       <c r="E2" t="n">
-        <v>450263.9294789601</v>
+        <v>450263.9294789599</v>
       </c>
       <c r="F2" t="n">
-        <v>450263.9294789598</v>
+        <v>450263.92947896</v>
       </c>
       <c r="G2" t="n">
         <v>450263.9294789599</v>
@@ -26334,28 +26334,28 @@
         <v>450263.92947896</v>
       </c>
       <c r="I2" t="n">
-        <v>450263.9294789598</v>
+        <v>450263.9294789599</v>
       </c>
       <c r="J2" t="n">
-        <v>450263.92947896</v>
+        <v>450263.9294789599</v>
       </c>
       <c r="K2" t="n">
         <v>450263.9294789598</v>
       </c>
       <c r="L2" t="n">
+        <v>450263.9294789599</v>
+      </c>
+      <c r="M2" t="n">
+        <v>450263.9294789599</v>
+      </c>
+      <c r="N2" t="n">
         <v>450263.92947896</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>450263.9294789598</v>
       </c>
-      <c r="N2" t="n">
-        <v>450263.9294789598</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>450263.9294789599</v>
-      </c>
-      <c r="P2" t="n">
-        <v>450263.9294789598</v>
       </c>
     </row>
     <row r="3">
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5446.975876289117</v>
+        <v>5446.975876289165</v>
       </c>
       <c r="E3" t="n">
         <v>822890.6267587401</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>17538.23916694942</v>
       </c>
       <c r="F4" t="n">
-        <v>17538.23916694939</v>
+        <v>17538.23916694942</v>
       </c>
       <c r="G4" t="n">
-        <v>17538.23916694944</v>
+        <v>17538.23916694942</v>
       </c>
       <c r="H4" t="n">
         <v>17538.23916694942</v>
       </c>
       <c r="I4" t="n">
+        <v>17538.23916694941</v>
+      </c>
+      <c r="J4" t="n">
         <v>17538.23916694942</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17538.23916694941</v>
       </c>
       <c r="K4" t="n">
         <v>17538.23916694942</v>
@@ -26453,13 +26453,13 @@
         <v>17538.23916694942</v>
       </c>
       <c r="N4" t="n">
-        <v>17538.23916694941</v>
+        <v>17538.23916694942</v>
       </c>
       <c r="O4" t="n">
-        <v>17538.23916694942</v>
+        <v>17538.23916694944</v>
       </c>
       <c r="P4" t="n">
-        <v>17538.23916694942</v>
+        <v>17538.23916694944</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>71108.80110809742</v>
       </c>
       <c r="F5" t="n">
-        <v>71108.80110809741</v>
+        <v>71108.80110809742</v>
       </c>
       <c r="G5" t="n">
-        <v>71108.80110809741</v>
+        <v>71108.80110809742</v>
       </c>
       <c r="H5" t="n">
+        <v>71108.8011080974</v>
+      </c>
+      <c r="I5" t="n">
         <v>71108.80110809742</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>71108.8011080974</v>
-      </c>
-      <c r="J5" t="n">
-        <v>71108.80110809742</v>
       </c>
       <c r="K5" t="n">
         <v>71108.8011080974</v>
@@ -26508,10 +26508,10 @@
         <v>71108.80110809742</v>
       </c>
       <c r="O5" t="n">
-        <v>71108.80110809742</v>
+        <v>71108.80110809741</v>
       </c>
       <c r="P5" t="n">
-        <v>71108.8011080974</v>
+        <v>71108.80110809741</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154547.4007699048</v>
+        <v>-154588.9779788379</v>
       </c>
       <c r="C6" t="n">
-        <v>153636.4830506496</v>
+        <v>153594.9058417165</v>
       </c>
       <c r="D6" t="n">
-        <v>149741.13976241</v>
+        <v>149699.6134351848</v>
       </c>
       <c r="E6" t="n">
-        <v>-461273.7375548268</v>
+        <v>-465123.33996888</v>
       </c>
       <c r="F6" t="n">
-        <v>361616.8892039128</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="G6" t="n">
-        <v>361616.8892039134</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="H6" t="n">
-        <v>361616.889203913</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="I6" t="n">
-        <v>361616.8892039129</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="J6" t="n">
-        <v>361616.8892039132</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="K6" t="n">
-        <v>361616.889203913</v>
+        <v>357767.28678986</v>
       </c>
       <c r="L6" t="n">
-        <v>361616.8892039132</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="M6" t="n">
-        <v>164567.5941405504</v>
+        <v>160717.9917264974</v>
       </c>
       <c r="N6" t="n">
-        <v>361616.889203913</v>
+        <v>357767.2867898601</v>
       </c>
       <c r="O6" t="n">
-        <v>361616.8892039131</v>
+        <v>357767.2867898598</v>
       </c>
       <c r="P6" t="n">
-        <v>361616.8892039129</v>
+        <v>357767.28678986</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
-        <v>326.1814319885847</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="E3" t="n">
         <v>1056.575242266764</v>
@@ -26801,19 +26801,19 @@
         <v>790.7148162283216</v>
       </c>
       <c r="F4" t="n">
-        <v>790.7148162283215</v>
+        <v>790.7148162283216</v>
       </c>
       <c r="G4" t="n">
-        <v>790.7148162283215</v>
+        <v>790.7148162283216</v>
       </c>
       <c r="H4" t="n">
+        <v>790.7148162283213</v>
+      </c>
+      <c r="I4" t="n">
         <v>790.7148162283216</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>790.7148162283213</v>
-      </c>
-      <c r="J4" t="n">
-        <v>790.7148162283216</v>
       </c>
       <c r="K4" t="n">
         <v>790.7148162283213</v>
@@ -26828,10 +26828,10 @@
         <v>790.7148162283216</v>
       </c>
       <c r="O4" t="n">
-        <v>790.7148162283216</v>
+        <v>790.7148162283215</v>
       </c>
       <c r="P4" t="n">
-        <v>790.7148162283212</v>
+        <v>790.7148162283215</v>
       </c>
     </row>
   </sheetData>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.360213490542094</v>
+        <v>6.360213490542151</v>
       </c>
       <c r="E3" t="n">
         <v>730.3938102781794</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27876,31 +27876,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J8" t="n">
-        <v>69.7524721116465</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
-        <v>53.28984570098885</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L8" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09656339947142101</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.161922983629808</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P8" t="n">
-        <v>42.66898511507469</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.70197082457099</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R8" t="n">
-        <v>133.2157111723113</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S8" t="n">
         <v>179.1392278518137</v>
@@ -27955,10 +27955,10 @@
         <v>75.36649093292084</v>
       </c>
       <c r="J9" t="n">
-        <v>60.5520207566091</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K9" t="n">
-        <v>24.54878065809744</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.42343072191046</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R9" t="n">
         <v>102.1188968768846</v>
@@ -28040,19 +28040,19 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>47.43596908875772</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M10" t="n">
-        <v>46.72338342663514</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O10" t="n">
-        <v>55.3177039508835</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P10" t="n">
-        <v>66.58836845609632</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q10" t="n">
         <v>102.2516053991695</v>
@@ -31533,7 +31533,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M8" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -31548,16 +31548,16 @@
         <v>141.6037190498785</v>
       </c>
       <c r="R8" t="n">
-        <v>82.36982664182086</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S8" t="n">
-        <v>29.88084173443166</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T8" t="n">
         <v>5.740137561929767</v>
       </c>
       <c r="U8" t="n">
-        <v>0.104902571091806</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7015977971075219</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H9" t="n">
-        <v>6.775957672064752</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I9" t="n">
-        <v>24.15588906707915</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J9" t="n">
-        <v>66.2856059100576</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K9" t="n">
         <v>113.2926583162616</v>
@@ -31624,10 +31624,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.55834336411105</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R9" t="n">
-        <v>43.56060708707931</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S9" t="n">
         <v>13.03187136294015</v>
@@ -31636,7 +31636,7 @@
         <v>2.827931471674616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0461577498097054</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5881960248974478</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H10" t="n">
-        <v>5.229597384997312</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I10" t="n">
-        <v>17.68865863964325</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J10" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K10" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L10" t="n">
-        <v>87.44870719248057</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M10" t="n">
-        <v>92.20240052096992</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N10" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O10" t="n">
-        <v>83.13883450095929</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P10" t="n">
-        <v>71.1396355930513</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.25339623027629</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R10" t="n">
         <v>26.44743217402524</v>
@@ -31712,10 +31712,10 @@
         <v>10.25065254298552</v>
       </c>
       <c r="T10" t="n">
-        <v>2.513201197289094</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03208341953986082</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.24753866237895</v>
+        <v>4.247538662378949</v>
       </c>
       <c r="H14" t="n">
         <v>43.50010532608842</v>
@@ -31998,40 +31998,40 @@
         <v>163.7532342813646</v>
       </c>
       <c r="J14" t="n">
-        <v>360.5045345460857</v>
+        <v>360.5045345460856</v>
       </c>
       <c r="K14" t="n">
-        <v>540.3028461245867</v>
+        <v>540.3028461245866</v>
       </c>
       <c r="L14" t="n">
-        <v>670.2934574633666</v>
+        <v>670.2934574633665</v>
       </c>
       <c r="M14" t="n">
-        <v>745.8306231504482</v>
+        <v>745.8306231504481</v>
       </c>
       <c r="N14" t="n">
-        <v>757.8989423749325</v>
+        <v>757.8989423749323</v>
       </c>
       <c r="O14" t="n">
-        <v>715.6624798009018</v>
+        <v>715.6624798009016</v>
       </c>
       <c r="P14" t="n">
-        <v>610.8013690734214</v>
+        <v>610.8013690734213</v>
       </c>
       <c r="Q14" t="n">
-        <v>458.6863907269751</v>
+        <v>458.686390726975</v>
       </c>
       <c r="R14" t="n">
-        <v>266.8144505006619</v>
+        <v>266.8144505006618</v>
       </c>
       <c r="S14" t="n">
-        <v>96.7907872689604</v>
+        <v>96.79078726896039</v>
       </c>
       <c r="T14" t="n">
         <v>18.59360049456386</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3398030929903159</v>
+        <v>0.3398030929903158</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.272633539970022</v>
+        <v>2.272633539970021</v>
       </c>
       <c r="H15" t="n">
-        <v>21.94885550444732</v>
+        <v>21.94885550444731</v>
       </c>
       <c r="I15" t="n">
-        <v>78.24637407352927</v>
+        <v>78.24637407352925</v>
       </c>
       <c r="J15" t="n">
-        <v>214.7140310723432</v>
+        <v>214.7140310723431</v>
       </c>
       <c r="K15" t="n">
         <v>366.9804782503346</v>
       </c>
       <c r="L15" t="n">
-        <v>493.4505412114734</v>
+        <v>493.4505412114733</v>
       </c>
       <c r="M15" t="n">
-        <v>575.8335070353866</v>
+        <v>575.8335070353864</v>
       </c>
       <c r="N15" t="n">
-        <v>591.0741065205365</v>
+        <v>591.0741065205364</v>
       </c>
       <c r="O15" t="n">
-        <v>540.7173317664639</v>
+        <v>540.7173317664638</v>
       </c>
       <c r="P15" t="n">
-        <v>433.9733292246264</v>
+        <v>433.9733292246263</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.0996778389804</v>
+        <v>290.0996778389803</v>
       </c>
       <c r="R15" t="n">
         <v>141.102633297437</v>
@@ -32107,7 +32107,7 @@
         <v>42.21317123584664</v>
       </c>
       <c r="T15" t="n">
-        <v>9.160307996633549</v>
+        <v>9.160307996633547</v>
       </c>
       <c r="U15" t="n">
         <v>0.149515364471712</v>
@@ -32153,22 +32153,22 @@
         <v>16.9398456874901</v>
       </c>
       <c r="I16" t="n">
-        <v>57.29755576095832</v>
+        <v>57.29755576095831</v>
       </c>
       <c r="J16" t="n">
         <v>134.704682936207</v>
       </c>
       <c r="K16" t="n">
-        <v>221.3611737076926</v>
+        <v>221.3611737076925</v>
       </c>
       <c r="L16" t="n">
-        <v>283.2660903611585</v>
+        <v>283.2660903611584</v>
       </c>
       <c r="M16" t="n">
-        <v>298.6643754492757</v>
+        <v>298.6643754492756</v>
       </c>
       <c r="N16" t="n">
-        <v>291.5628041487944</v>
+        <v>291.5628041487943</v>
       </c>
       <c r="O16" t="n">
         <v>269.3054404387485</v>
@@ -32180,13 +32180,13 @@
         <v>159.5428615822814</v>
       </c>
       <c r="R16" t="n">
-        <v>85.66919915166254</v>
+        <v>85.66919915166253</v>
       </c>
       <c r="S16" t="n">
-        <v>33.20417605615388</v>
+        <v>33.20417605615387</v>
       </c>
       <c r="T16" t="n">
-        <v>8.140825637137363</v>
+        <v>8.140825637137361</v>
       </c>
       <c r="U16" t="n">
         <v>0.1039254336655835</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.247538662378948</v>
+        <v>4.247538662378949</v>
       </c>
       <c r="H17" t="n">
-        <v>43.50010532608841</v>
+        <v>43.50010532608842</v>
       </c>
       <c r="I17" t="n">
-        <v>163.7532342813645</v>
+        <v>163.7532342813646</v>
       </c>
       <c r="J17" t="n">
         <v>360.5045345460856</v>
       </c>
       <c r="K17" t="n">
-        <v>540.3028461245865</v>
+        <v>540.3028461245866</v>
       </c>
       <c r="L17" t="n">
-        <v>670.2934574633664</v>
+        <v>670.2934574633665</v>
       </c>
       <c r="M17" t="n">
-        <v>745.8306231504479</v>
+        <v>745.8306231504481</v>
       </c>
       <c r="N17" t="n">
-        <v>757.8989423749322</v>
+        <v>757.8989423749323</v>
       </c>
       <c r="O17" t="n">
-        <v>715.6624798009015</v>
+        <v>715.6624798009016</v>
       </c>
       <c r="P17" t="n">
-        <v>610.8013690734211</v>
+        <v>610.8013690734213</v>
       </c>
       <c r="Q17" t="n">
-        <v>458.6863907269749</v>
+        <v>458.686390726975</v>
       </c>
       <c r="R17" t="n">
         <v>266.8144505006618</v>
       </c>
       <c r="S17" t="n">
-        <v>96.79078726896036</v>
+        <v>96.79078726896039</v>
       </c>
       <c r="T17" t="n">
-        <v>18.59360049456385</v>
+        <v>18.59360049456386</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3398030929903157</v>
+        <v>0.3398030929903158</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>21.94885550444731</v>
       </c>
       <c r="I18" t="n">
-        <v>78.24637407352924</v>
+        <v>78.24637407352925</v>
       </c>
       <c r="J18" t="n">
         <v>214.7140310723431</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9804782503344</v>
+        <v>366.9804782503346</v>
       </c>
       <c r="L18" t="n">
-        <v>493.4505412114732</v>
+        <v>493.4505412114733</v>
       </c>
       <c r="M18" t="n">
-        <v>575.8335070353863</v>
+        <v>575.8335070353864</v>
       </c>
       <c r="N18" t="n">
-        <v>591.0741065205362</v>
+        <v>591.0741065205364</v>
       </c>
       <c r="O18" t="n">
-        <v>540.7173317664636</v>
+        <v>540.7173317664638</v>
       </c>
       <c r="P18" t="n">
-        <v>433.9733292246262</v>
+        <v>433.9733292246263</v>
       </c>
       <c r="Q18" t="n">
-        <v>290.0996778389802</v>
+        <v>290.0996778389803</v>
       </c>
       <c r="R18" t="n">
         <v>141.102633297437</v>
       </c>
       <c r="S18" t="n">
-        <v>42.21317123584663</v>
+        <v>42.21317123584664</v>
       </c>
       <c r="T18" t="n">
-        <v>9.160307996633545</v>
+        <v>9.160307996633547</v>
       </c>
       <c r="U18" t="n">
         <v>0.149515364471712</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.905299617202361</v>
+        <v>1.905299617202362</v>
       </c>
       <c r="H19" t="n">
         <v>16.9398456874901</v>
       </c>
       <c r="I19" t="n">
-        <v>57.2975557609583</v>
+        <v>57.29755576095831</v>
       </c>
       <c r="J19" t="n">
-        <v>134.7046829362069</v>
+        <v>134.704682936207</v>
       </c>
       <c r="K19" t="n">
-        <v>221.3611737076924</v>
+        <v>221.3611737076925</v>
       </c>
       <c r="L19" t="n">
         <v>283.2660903611584</v>
@@ -32408,25 +32408,25 @@
         <v>291.5628041487943</v>
       </c>
       <c r="O19" t="n">
-        <v>269.3054404387484</v>
+        <v>269.3054404387485</v>
       </c>
       <c r="P19" t="n">
-        <v>230.43732824782</v>
+        <v>230.4373282478201</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.5428615822813</v>
+        <v>159.5428615822814</v>
       </c>
       <c r="R19" t="n">
-        <v>85.66919915166251</v>
+        <v>85.66919915166253</v>
       </c>
       <c r="S19" t="n">
-        <v>33.20417605615386</v>
+        <v>33.20417605615387</v>
       </c>
       <c r="T19" t="n">
-        <v>8.140825637137359</v>
+        <v>8.140825637137361</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1039254336655834</v>
+        <v>0.1039254336655835</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.247538662378949</v>
+        <v>4.247538662378948</v>
       </c>
       <c r="H41" t="n">
-        <v>43.50010532608842</v>
+        <v>43.50010532608841</v>
       </c>
       <c r="I41" t="n">
-        <v>163.7532342813646</v>
+        <v>163.7532342813645</v>
       </c>
       <c r="J41" t="n">
         <v>360.5045345460856</v>
       </c>
       <c r="K41" t="n">
-        <v>540.3028461245866</v>
+        <v>540.3028461245865</v>
       </c>
       <c r="L41" t="n">
-        <v>670.2934574633665</v>
+        <v>670.2934574633664</v>
       </c>
       <c r="M41" t="n">
-        <v>745.8306231504481</v>
+        <v>745.8306231504479</v>
       </c>
       <c r="N41" t="n">
-        <v>757.8989423749323</v>
+        <v>757.8989423749322</v>
       </c>
       <c r="O41" t="n">
-        <v>715.6624798009016</v>
+        <v>715.6624798009015</v>
       </c>
       <c r="P41" t="n">
-        <v>610.8013690734213</v>
+        <v>610.8013690734211</v>
       </c>
       <c r="Q41" t="n">
-        <v>458.686390726975</v>
+        <v>458.6863907269749</v>
       </c>
       <c r="R41" t="n">
-        <v>266.8144505006618</v>
+        <v>266.8144505006634</v>
       </c>
       <c r="S41" t="n">
-        <v>96.79078726896039</v>
+        <v>96.79078726896036</v>
       </c>
       <c r="T41" t="n">
-        <v>18.59360049456386</v>
+        <v>18.59360049456385</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3398030929903158</v>
+        <v>0.3398030929903157</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>21.94885550444731</v>
       </c>
       <c r="I42" t="n">
-        <v>78.24637407352925</v>
+        <v>78.24637407352924</v>
       </c>
       <c r="J42" t="n">
         <v>214.7140310723431</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9804782503346</v>
+        <v>366.9804782503344</v>
       </c>
       <c r="L42" t="n">
-        <v>493.4505412114733</v>
+        <v>493.4505412114732</v>
       </c>
       <c r="M42" t="n">
-        <v>575.8335070353864</v>
+        <v>575.8335070353863</v>
       </c>
       <c r="N42" t="n">
-        <v>591.0741065205364</v>
+        <v>591.0741065205362</v>
       </c>
       <c r="O42" t="n">
-        <v>540.7173317664638</v>
+        <v>540.7173317664636</v>
       </c>
       <c r="P42" t="n">
-        <v>433.9733292246263</v>
+        <v>433.9733292246262</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.0996778389803</v>
+        <v>290.0996778389802</v>
       </c>
       <c r="R42" t="n">
         <v>141.102633297437</v>
       </c>
       <c r="S42" t="n">
-        <v>42.21317123584664</v>
+        <v>42.21317123584663</v>
       </c>
       <c r="T42" t="n">
-        <v>9.160307996633547</v>
+        <v>9.160307996633545</v>
       </c>
       <c r="U42" t="n">
         <v>0.149515364471712</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.905299617202362</v>
+        <v>1.905299617202361</v>
       </c>
       <c r="H43" t="n">
         <v>16.9398456874901</v>
       </c>
       <c r="I43" t="n">
-        <v>57.29755576095831</v>
+        <v>57.2975557609583</v>
       </c>
       <c r="J43" t="n">
-        <v>134.704682936207</v>
+        <v>134.7046829362069</v>
       </c>
       <c r="K43" t="n">
-        <v>221.3611737076925</v>
+        <v>221.3611737076924</v>
       </c>
       <c r="L43" t="n">
         <v>283.2660903611584</v>
@@ -34304,25 +34304,25 @@
         <v>291.5628041487943</v>
       </c>
       <c r="O43" t="n">
-        <v>269.3054404387485</v>
+        <v>269.3054404387484</v>
       </c>
       <c r="P43" t="n">
-        <v>230.4373282478201</v>
+        <v>230.43732824782</v>
       </c>
       <c r="Q43" t="n">
-        <v>159.5428615822814</v>
+        <v>159.5428615822813</v>
       </c>
       <c r="R43" t="n">
-        <v>85.66919915166253</v>
+        <v>85.66919915166251</v>
       </c>
       <c r="S43" t="n">
-        <v>33.20417605615387</v>
+        <v>33.20417605615386</v>
       </c>
       <c r="T43" t="n">
-        <v>8.140825637137361</v>
+        <v>8.140825637137359</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1039254336655835</v>
+        <v>0.1039254336655834</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.247538662378949</v>
+        <v>4.247538662378948</v>
       </c>
       <c r="H44" t="n">
-        <v>43.50010532608842</v>
+        <v>43.50010532608841</v>
       </c>
       <c r="I44" t="n">
-        <v>163.7532342813646</v>
+        <v>163.7532342813645</v>
       </c>
       <c r="J44" t="n">
         <v>360.5045345460856</v>
       </c>
       <c r="K44" t="n">
-        <v>540.3028461245866</v>
+        <v>540.3028461245865</v>
       </c>
       <c r="L44" t="n">
-        <v>670.2934574633665</v>
+        <v>670.2934574633664</v>
       </c>
       <c r="M44" t="n">
-        <v>745.8306231504481</v>
+        <v>745.8306231504479</v>
       </c>
       <c r="N44" t="n">
-        <v>757.8989423749323</v>
+        <v>757.8989423749322</v>
       </c>
       <c r="O44" t="n">
-        <v>715.6624798009016</v>
+        <v>715.6624798009015</v>
       </c>
       <c r="P44" t="n">
-        <v>610.8013690734213</v>
+        <v>610.8013690734211</v>
       </c>
       <c r="Q44" t="n">
-        <v>458.686390726975</v>
+        <v>458.6863907269749</v>
       </c>
       <c r="R44" t="n">
         <v>266.8144505006618</v>
       </c>
       <c r="S44" t="n">
-        <v>96.79078726896039</v>
+        <v>96.79078726896036</v>
       </c>
       <c r="T44" t="n">
-        <v>18.59360049456386</v>
+        <v>18.59360049456385</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3398030929903158</v>
+        <v>0.3398030929903157</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>21.94885550444731</v>
       </c>
       <c r="I45" t="n">
-        <v>78.24637407352925</v>
+        <v>78.24637407352924</v>
       </c>
       <c r="J45" t="n">
         <v>214.7140310723431</v>
       </c>
       <c r="K45" t="n">
-        <v>366.9804782503346</v>
+        <v>366.9804782503344</v>
       </c>
       <c r="L45" t="n">
-        <v>493.4505412114733</v>
+        <v>493.4505412114732</v>
       </c>
       <c r="M45" t="n">
-        <v>575.8335070353864</v>
+        <v>575.8335070353863</v>
       </c>
       <c r="N45" t="n">
-        <v>591.0741065205364</v>
+        <v>591.0741065205362</v>
       </c>
       <c r="O45" t="n">
-        <v>540.7173317664638</v>
+        <v>540.7173317664636</v>
       </c>
       <c r="P45" t="n">
-        <v>433.9733292246263</v>
+        <v>433.9733292246262</v>
       </c>
       <c r="Q45" t="n">
-        <v>290.0996778389803</v>
+        <v>290.0996778389802</v>
       </c>
       <c r="R45" t="n">
         <v>141.102633297437</v>
       </c>
       <c r="S45" t="n">
-        <v>42.21317123584664</v>
+        <v>42.21317123584663</v>
       </c>
       <c r="T45" t="n">
-        <v>9.160307996633547</v>
+        <v>9.160307996633545</v>
       </c>
       <c r="U45" t="n">
         <v>0.149515364471712</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.905299617202362</v>
+        <v>1.905299617202361</v>
       </c>
       <c r="H46" t="n">
         <v>16.9398456874901</v>
       </c>
       <c r="I46" t="n">
-        <v>57.29755576095831</v>
+        <v>57.2975557609583</v>
       </c>
       <c r="J46" t="n">
-        <v>134.704682936207</v>
+        <v>134.7046829362069</v>
       </c>
       <c r="K46" t="n">
-        <v>221.3611737076925</v>
+        <v>221.3611737076924</v>
       </c>
       <c r="L46" t="n">
         <v>283.2660903611584</v>
@@ -34541,25 +34541,25 @@
         <v>291.5628041487943</v>
       </c>
       <c r="O46" t="n">
-        <v>269.3054404387485</v>
+        <v>269.3054404387484</v>
       </c>
       <c r="P46" t="n">
-        <v>230.4373282478201</v>
+        <v>230.43732824782</v>
       </c>
       <c r="Q46" t="n">
-        <v>159.5428615822814</v>
+        <v>159.5428615822813</v>
       </c>
       <c r="R46" t="n">
-        <v>85.66919915166253</v>
+        <v>85.66919915166251</v>
       </c>
       <c r="S46" t="n">
-        <v>33.20417605615387</v>
+        <v>33.20417605615386</v>
       </c>
       <c r="T46" t="n">
-        <v>8.140825637137361</v>
+        <v>8.140825637137359</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1039254336655835</v>
+        <v>0.1039254336655834</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>229.1390392759756</v>
       </c>
       <c r="L12" t="n">
-        <v>354.8961614315991</v>
+        <v>459.5540481594045</v>
       </c>
       <c r="M12" t="n">
-        <v>497.4125606963798</v>
+        <v>433.6994731133681</v>
       </c>
       <c r="N12" t="n">
         <v>459.7323944372031</v>
@@ -35512,7 +35512,7 @@
         <v>150.1179037529587</v>
       </c>
       <c r="R12" t="n">
-        <v>40.94479914479386</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.4586300193994</v>
+        <v>179.4586300193993</v>
       </c>
       <c r="K14" t="n">
-        <v>320.2129950796062</v>
+        <v>320.2129950796061</v>
       </c>
       <c r="L14" t="n">
-        <v>434.5270424933794</v>
+        <v>434.5270424933793</v>
       </c>
       <c r="M14" t="n">
-        <v>515.4843899231755</v>
+        <v>515.4843899231754</v>
       </c>
       <c r="N14" t="n">
-        <v>528.4858787783417</v>
+        <v>528.4858787783414</v>
       </c>
       <c r="O14" t="n">
-        <v>485.564268379215</v>
+        <v>485.5642683792148</v>
       </c>
       <c r="P14" t="n">
-        <v>379.5683733181518</v>
+        <v>379.5683733181517</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.3807008525256</v>
+        <v>236.3807008525255</v>
       </c>
       <c r="R14" t="n">
-        <v>51.22891268652978</v>
+        <v>51.22891268652972</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.87640440567648</v>
+        <v>87.87640440567645</v>
       </c>
       <c r="K15" t="n">
         <v>229.1390392759756</v>
       </c>
       <c r="L15" t="n">
-        <v>354.8961614315992</v>
+        <v>354.8961614315991</v>
       </c>
       <c r="M15" t="n">
-        <v>433.6994731133682</v>
+        <v>433.6994731133681</v>
       </c>
       <c r="N15" t="n">
-        <v>459.7323944372032</v>
+        <v>459.7323944372031</v>
       </c>
       <c r="O15" t="n">
-        <v>398.1210873220194</v>
+        <v>502.7789740498246</v>
       </c>
       <c r="P15" t="n">
-        <v>404.6568085381004</v>
+        <v>299.9989218102961</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1179037529589</v>
+        <v>150.1179037529587</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.3455028195342</v>
+        <v>41.34550281953418</v>
       </c>
       <c r="K16" t="n">
-        <v>199.0916818818097</v>
+        <v>199.0916818818096</v>
       </c>
       <c r="L16" t="n">
         <v>310.8561156214746</v>
       </c>
       <c r="M16" t="n">
-        <v>338.2482524111163</v>
+        <v>338.2482524111162</v>
       </c>
       <c r="N16" t="n">
         <v>335.6949765280229</v>
       </c>
       <c r="O16" t="n">
-        <v>293.8905683527882</v>
+        <v>293.8905683527881</v>
       </c>
       <c r="P16" t="n">
         <v>227.7158875127136</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.38081833058705</v>
+        <v>73.38081833058702</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>179.4586300193993</v>
       </c>
       <c r="K17" t="n">
-        <v>320.2129950796059</v>
+        <v>320.2129950796061</v>
       </c>
       <c r="L17" t="n">
-        <v>434.5270424933792</v>
+        <v>434.5270424933793</v>
       </c>
       <c r="M17" t="n">
-        <v>515.4843899231752</v>
+        <v>515.4843899231754</v>
       </c>
       <c r="N17" t="n">
-        <v>528.4858787783412</v>
+        <v>528.4858787783414</v>
       </c>
       <c r="O17" t="n">
-        <v>485.5642683792147</v>
+        <v>485.5642683792148</v>
       </c>
       <c r="P17" t="n">
-        <v>379.5683733181516</v>
+        <v>379.5683733181517</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.3807008525254</v>
+        <v>236.3807008525255</v>
       </c>
       <c r="R17" t="n">
-        <v>51.22891268652967</v>
+        <v>51.22891268652972</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.8764044056764</v>
+        <v>87.87640440567645</v>
       </c>
       <c r="K18" t="n">
-        <v>229.1390392759754</v>
+        <v>229.1390392759756</v>
       </c>
       <c r="L18" t="n">
-        <v>354.896161431599</v>
+        <v>459.5540481594045</v>
       </c>
       <c r="M18" t="n">
-        <v>433.699473113368</v>
+        <v>433.6994731133681</v>
       </c>
       <c r="N18" t="n">
-        <v>459.732394437203</v>
+        <v>459.7323944372031</v>
       </c>
       <c r="O18" t="n">
-        <v>502.7789740498253</v>
+        <v>398.1210873220193</v>
       </c>
       <c r="P18" t="n">
-        <v>299.9989218102959</v>
+        <v>299.9989218102961</v>
       </c>
       <c r="Q18" t="n">
         <v>150.1179037529587</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.34550281953415</v>
+        <v>41.34550281953418</v>
       </c>
       <c r="K19" t="n">
         <v>199.0916818818096</v>
       </c>
       <c r="L19" t="n">
-        <v>310.8561156214745</v>
+        <v>310.8561156214746</v>
       </c>
       <c r="M19" t="n">
-        <v>338.2482524111161</v>
+        <v>338.2482524111162</v>
       </c>
       <c r="N19" t="n">
-        <v>335.6949765280228</v>
+        <v>335.6949765280229</v>
       </c>
       <c r="O19" t="n">
         <v>293.8905683527881</v>
       </c>
       <c r="P19" t="n">
-        <v>227.7158875127135</v>
+        <v>227.7158875127136</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.38081833058696</v>
+        <v>73.38081833058702</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.87640440567645</v>
+        <v>151.5894919886881</v>
       </c>
       <c r="K21" t="n">
-        <v>333.7969260037809</v>
+        <v>229.1390392759756</v>
       </c>
       <c r="L21" t="n">
         <v>354.8961614315991</v>
@@ -36223,7 +36223,7 @@
         <v>150.1179037529587</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.94479914479386</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>459.7323944372031</v>
       </c>
       <c r="O24" t="n">
-        <v>502.7789740498246</v>
+        <v>398.1210873220193</v>
       </c>
       <c r="P24" t="n">
         <v>299.9989218102961</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1179037529587</v>
+        <v>254.7757904807638</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>459.7323944372031</v>
       </c>
       <c r="O27" t="n">
-        <v>398.1210873220193</v>
+        <v>502.7789740498246</v>
       </c>
       <c r="P27" t="n">
         <v>299.9989218102961</v>
       </c>
       <c r="Q27" t="n">
-        <v>254.7757904807638</v>
+        <v>150.1179037529587</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.87640440567645</v>
+        <v>192.5342911334818</v>
       </c>
       <c r="K30" t="n">
         <v>229.1390392759756</v>
@@ -36922,7 +36922,7 @@
         <v>433.6994731133681</v>
       </c>
       <c r="N30" t="n">
-        <v>564.3902811650086</v>
+        <v>459.7323944372031</v>
       </c>
       <c r="O30" t="n">
         <v>398.1210873220193</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>192.5342911334818</v>
+        <v>87.87640440567645</v>
       </c>
       <c r="K33" t="n">
         <v>229.1390392759756</v>
       </c>
       <c r="L33" t="n">
-        <v>354.8961614315991</v>
+        <v>459.5540481594045</v>
       </c>
       <c r="M33" t="n">
         <v>433.6994731133681</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.87640440567645</v>
+        <v>192.5342911334818</v>
       </c>
       <c r="K36" t="n">
         <v>229.1390392759756</v>
       </c>
       <c r="L36" t="n">
-        <v>459.5540481594045</v>
+        <v>354.8961614315991</v>
       </c>
       <c r="M36" t="n">
         <v>433.6994731133681</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.87640440567645</v>
+        <v>151.5894919886881</v>
       </c>
       <c r="K39" t="n">
         <v>229.1390392759756</v>
@@ -37642,10 +37642,10 @@
         <v>299.9989218102961</v>
       </c>
       <c r="Q39" t="n">
-        <v>254.7757904807638</v>
+        <v>150.1179037529587</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>40.94479914479386</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>179.4586300193993</v>
       </c>
       <c r="K41" t="n">
-        <v>320.2129950796061</v>
+        <v>320.2129950796059</v>
       </c>
       <c r="L41" t="n">
-        <v>434.5270424933793</v>
+        <v>434.5270424933792</v>
       </c>
       <c r="M41" t="n">
-        <v>515.4843899231754</v>
+        <v>515.4843899231752</v>
       </c>
       <c r="N41" t="n">
-        <v>528.4858787783414</v>
+        <v>528.4858787783412</v>
       </c>
       <c r="O41" t="n">
-        <v>485.5642683792148</v>
+        <v>485.5642683792147</v>
       </c>
       <c r="P41" t="n">
-        <v>379.5683733181517</v>
+        <v>379.5683733181516</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.3807008525255</v>
+        <v>236.3807008525254</v>
       </c>
       <c r="R41" t="n">
-        <v>51.22891268652972</v>
+        <v>51.22891268653132</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.87640440567645</v>
+        <v>87.8764044056764</v>
       </c>
       <c r="K42" t="n">
-        <v>229.1390392759756</v>
+        <v>292.8521268589878</v>
       </c>
       <c r="L42" t="n">
-        <v>354.8961614315991</v>
+        <v>354.896161431599</v>
       </c>
       <c r="M42" t="n">
-        <v>433.6994731133681</v>
+        <v>433.699473113368</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7323944372031</v>
+        <v>459.732394437203</v>
       </c>
       <c r="O42" t="n">
-        <v>502.7789740498246</v>
+        <v>398.1210873220192</v>
       </c>
       <c r="P42" t="n">
-        <v>299.9989218102961</v>
+        <v>299.9989218102959</v>
       </c>
       <c r="Q42" t="n">
         <v>150.1179037529587</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.94479914479383</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.34550281953418</v>
+        <v>41.34550281953415</v>
       </c>
       <c r="K43" t="n">
         <v>199.0916818818096</v>
       </c>
       <c r="L43" t="n">
-        <v>310.8561156214746</v>
+        <v>310.8561156214745</v>
       </c>
       <c r="M43" t="n">
-        <v>338.2482524111162</v>
+        <v>338.2482524111161</v>
       </c>
       <c r="N43" t="n">
-        <v>335.6949765280229</v>
+        <v>335.6949765280228</v>
       </c>
       <c r="O43" t="n">
         <v>293.8905683527881</v>
       </c>
       <c r="P43" t="n">
-        <v>227.7158875127136</v>
+        <v>227.7158875127135</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.38081833058702</v>
+        <v>73.38081833058696</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>179.4586300193993</v>
       </c>
       <c r="K44" t="n">
-        <v>320.2129950796061</v>
+        <v>320.2129950796059</v>
       </c>
       <c r="L44" t="n">
-        <v>434.5270424933793</v>
+        <v>434.5270424933792</v>
       </c>
       <c r="M44" t="n">
-        <v>515.4843899231754</v>
+        <v>515.4843899231752</v>
       </c>
       <c r="N44" t="n">
-        <v>528.4858787783414</v>
+        <v>528.4858787783412</v>
       </c>
       <c r="O44" t="n">
-        <v>485.5642683792148</v>
+        <v>485.5642683792147</v>
       </c>
       <c r="P44" t="n">
-        <v>379.5683733181517</v>
+        <v>379.5683733181516</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.3807008525255</v>
+        <v>236.3807008525254</v>
       </c>
       <c r="R44" t="n">
-        <v>51.22891268652972</v>
+        <v>51.22891268652967</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>192.5342911334818</v>
+        <v>87.8764044056764</v>
       </c>
       <c r="K45" t="n">
-        <v>229.1390392759756</v>
+        <v>333.7969260037816</v>
       </c>
       <c r="L45" t="n">
-        <v>354.8961614315991</v>
+        <v>354.896161431599</v>
       </c>
       <c r="M45" t="n">
-        <v>433.6994731133681</v>
+        <v>433.699473113368</v>
       </c>
       <c r="N45" t="n">
-        <v>459.7323944372031</v>
+        <v>459.732394437203</v>
       </c>
       <c r="O45" t="n">
-        <v>398.1210873220193</v>
+        <v>398.1210873220192</v>
       </c>
       <c r="P45" t="n">
-        <v>299.9989218102961</v>
+        <v>299.9989218102959</v>
       </c>
       <c r="Q45" t="n">
         <v>150.1179037529587</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.34550281953418</v>
+        <v>41.34550281953415</v>
       </c>
       <c r="K46" t="n">
         <v>199.0916818818096</v>
       </c>
       <c r="L46" t="n">
-        <v>310.8561156214746</v>
+        <v>310.8561156214745</v>
       </c>
       <c r="M46" t="n">
-        <v>338.2482524111162</v>
+        <v>338.2482524111161</v>
       </c>
       <c r="N46" t="n">
-        <v>335.6949765280229</v>
+        <v>335.6949765280228</v>
       </c>
       <c r="O46" t="n">
         <v>293.8905683527881</v>
       </c>
       <c r="P46" t="n">
-        <v>227.7158875127136</v>
+        <v>227.7158875127135</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.38081833058702</v>
+        <v>73.38081833058696</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
